--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9EAB8C-4A6C-D040-ADB7-76E7FAE4B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9491A67-AEAE-354B-ABC4-4127E0E3EA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="464">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1215,6 +1215,204 @@
   </si>
   <si>
     <t>이종선</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>k_zleun@naver.com</t>
+  </si>
+  <si>
+    <t>강지은</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>미래융합스쿨</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>ckswo00@gmail.com</t>
+  </si>
+  <si>
+    <t>이찬재</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>jdragon01@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>andy9925@naver.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>jech1088@gmail.com</t>
+  </si>
+  <si>
+    <t>정주한</t>
+  </si>
+  <si>
+    <t>ksong1210@icloud.com</t>
+  </si>
+  <si>
+    <t>곽송</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>kang__bbo@naver.com</t>
+  </si>
+  <si>
+    <t>강다은</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>eomjh2005@naver.com</t>
+  </si>
+  <si>
+    <t>엄지희</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">허인 </t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>4262candy@never.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>zorotod@naver.com</t>
+  </si>
+  <si>
+    <t>김승욱</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1600,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1414,13 +1612,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1429,13 +1627,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1560,7 +1758,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N187">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -1782,11 +1980,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M163" sqref="M163"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4676,7 +4874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>45553.704483831018</v>
       </c>
@@ -4717,7 +4915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>45553.707261342592</v>
       </c>
@@ -4758,7 +4956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>45553.714789189813</v>
       </c>
@@ -4799,7 +4997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>45553.742279259255</v>
       </c>
@@ -4840,7 +5038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <v>45553.756887060183</v>
       </c>
@@ -4881,7 +5079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>45553.757156261578</v>
       </c>
@@ -8162,44 +8360,1315 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="16">
+      <c r="A156" s="4">
         <v>45554.884813912038</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D156" s="17">
+      <c r="D156" s="5">
         <v>20223249</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F156" s="18" t="s">
+      <c r="F156" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G156" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I156" s="17" t="s">
+      <c r="G156" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J156" s="20">
+      <c r="J156" s="8">
         <v>0.151</v>
       </c>
-      <c r="K156" s="17" t="s">
+      <c r="K156" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L156" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N156" s="21" t="s">
+      <c r="L156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="9" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157" s="10">
+        <v>45554.898884722221</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" s="11">
+        <v>20242973</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G157" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J157" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K157" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L157" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
+        <v>45554.900499525465</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="5">
+        <v>20241603</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J158" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="10">
+        <v>45554.907592476855</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D159" s="11">
+        <v>20246639</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J159" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
+        <v>45554.911705277773</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20244126</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J160" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="10">
+        <v>45554.913271412035</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D161" s="11">
+        <v>20242749</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G161" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I161" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J161" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K161" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L161" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>45554.914638379632</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D162" s="5">
+        <v>20217151</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163" s="10">
+        <v>45554.928531840276</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D163" s="11">
+        <v>20243210</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I163" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J163" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K163" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L163" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M163" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>45554.947763761578</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D164" s="5">
+        <v>20216731</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J164" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165" s="10">
+        <v>45554.953106655092</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D165" s="11">
+        <v>20243741</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J165" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K165" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>45554.957450914357</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D166" s="5">
+        <v>20205195</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J166" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="10">
+        <v>45554.95954851852</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="11">
+        <v>20243702</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J167" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K167" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L167" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
+        <v>45554.962057638884</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D168" s="5">
+        <v>20245190</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J168" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="10">
+        <v>45554.962131319444</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D169" s="11">
+        <v>20243259</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G169" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J169" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K169" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L169" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
+        <v>45555.01149045139</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D170" s="5">
+        <v>20243007</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J170" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171" s="10">
+        <v>45555.027084317131</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" s="11">
+        <v>20243529</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I171" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J171" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K171" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L171" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N171" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
+        <v>45555.032443530094</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20234110</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G172" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J172" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A173" s="10">
+        <v>45555.033322719908</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D173" s="11">
+        <v>20241633</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H173" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I173" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J173" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K173" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L173" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
+        <v>45555.034225671297</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D174" s="5">
+        <v>20242304</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G174" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J174" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A175" s="10">
+        <v>45555.035998460648</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D175" s="11">
+        <v>20242540</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I175" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J175" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K175" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
+        <v>45555.049220057874</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D176" s="5">
+        <v>20246279</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G176" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J176" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N176" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A177" s="10">
+        <v>45555.059780104166</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D177" s="11">
+        <v>20246601</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J177" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L177" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N177" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
+        <v>45555.078996493059</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" s="5">
+        <v>20242957</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J178" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A179" s="10">
+        <v>45555.134126157413</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="11">
+        <v>20243825</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H179" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I179" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J179" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K179" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M179" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
+        <v>45555.135916319443</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D180" s="5">
+        <v>20221005</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J180" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A181" s="10">
+        <v>45555.145302847217</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D181" s="11">
+        <v>2024603</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I181" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K181" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N181" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>45555.438159224534</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20242358</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G182" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J182" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A183" s="10">
+        <v>45555.438563460644</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D183" s="11">
+        <v>20205176</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J183" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K183" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L183" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M183" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>45555.441791666672</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20243048</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J184" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A185" s="10">
+        <v>45555.446869583335</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" s="11">
+        <v>20193508</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J185" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L185" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>45555.504123206018</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20213609</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G186" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N186" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187" s="16">
+        <v>45555.506865196759</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D187" s="17">
+        <v>20217152</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F187" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G187" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H187" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J187" s="20">
+        <v>0.151</v>
+      </c>
+      <c r="K187" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L187" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9491A67-AEAE-354B-ABC4-4127E0E3EA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E298679A-C1ED-A04B-B984-BCE50D407CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="643">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1413,6 +1413,543 @@
   </si>
   <si>
     <t>이채은</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>kdhmonkeyking@gmail.com</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>h20241220@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>youlove6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>sf12nam@gmail.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>csyoon1215@naver.com</t>
+  </si>
+  <si>
+    <t>천세윤</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품영양학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">오승현 </t>
+  </si>
+  <si>
+    <t>dlrua105@naver.com</t>
+  </si>
+  <si>
+    <t>이겸</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>77sunhwa@gmail.com</t>
+  </si>
+  <si>
+    <t>박선화</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>leesamchi0511@naver.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t>최성돈</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘탠츠IT </t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>leejiheoen450@naver.com</t>
+  </si>
+  <si>
+    <t>이지현</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨 언론방송융합학과</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>okroyal1@naver.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>leeaumin1@naver.com</t>
+  </si>
+  <si>
+    <t>jseonghun411@gmail.com</t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>zxcod10@gmail.com</t>
+  </si>
+  <si>
+    <t>최원용</t>
+  </si>
+  <si>
+    <t>mjjb0103@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>이민재</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>jyc6212@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학 전공</t>
+  </si>
+  <si>
+    <t>정윤채</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>seollo020531@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>설창원</t>
+  </si>
+  <si>
+    <t>s454s@naver.com</t>
+  </si>
+  <si>
+    <t>이동주</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>lucas3767@naver.com</t>
+  </si>
+  <si>
+    <t>권민재</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>ran0753@gmail.com</t>
+  </si>
+  <si>
+    <t>김태란</t>
+  </si>
+  <si>
+    <t>wonda0322@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>원다연</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>xodet0817@naver.com</t>
+  </si>
+  <si>
+    <t>문종윤</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>khi031127@naver.com</t>
+  </si>
+  <si>
+    <t>김현일</t>
+  </si>
+  <si>
+    <t>cold050317@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬종</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>changho0216@gmail.com</t>
+  </si>
+  <si>
+    <t>이창호</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
   </si>
 </sst>
 </file>
@@ -1600,10 +2137,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1612,13 +2149,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1627,13 +2164,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -1758,7 +2295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N272">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -1980,11 +2517,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:N272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I194" sqref="I194"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L292" sqref="L292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4874,7 +5411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>45553.704483831018</v>
       </c>
@@ -4915,7 +5452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>45553.707261342592</v>
       </c>
@@ -4956,7 +5493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>45553.714789189813</v>
       </c>
@@ -4997,7 +5534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>45553.742279259255</v>
       </c>
@@ -5038,7 +5575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <v>45553.756887060183</v>
       </c>
@@ -5079,7 +5616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>45553.757156261578</v>
       </c>
@@ -9631,43 +10168,3528 @@
       </c>
     </row>
     <row r="187" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="16">
+      <c r="A187" s="10">
         <v>45555.506865196759</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D187" s="17">
+      <c r="D187" s="11">
         <v>20217152</v>
       </c>
-      <c r="E187" s="17" t="s">
+      <c r="E187" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="F187" s="18" t="s">
+      <c r="F187" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G187" s="19">
+      <c r="G187" s="13">
         <v>0.25</v>
       </c>
-      <c r="H187" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I187" s="17" t="s">
+      <c r="H187" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I187" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J187" s="20">
+      <c r="J187" s="14">
         <v>0.151</v>
       </c>
-      <c r="K187" s="17" t="s">
+      <c r="K187" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L187" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N187" s="21" t="s">
+      <c r="L187" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
+        <v>45555.510705011577</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D188" s="5">
+        <v>20212818</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G188" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A189" s="10">
+        <v>45555.515071527778</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D189" s="11">
+        <v>20212801</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H189" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I189" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N189" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
+        <v>45555.545685833335</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D190" s="5">
+        <v>20241510</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J190" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N190" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A191" s="10">
+        <v>45555.549685405094</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D191" s="11">
+        <v>20215262</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J191" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L191" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M191" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>45555.594055879628</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20243650</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J192" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A193" s="10">
+        <v>45555.60983616898</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" s="11">
+        <v>20243961</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J193" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N193" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>45555.614070520838</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20241207</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="10">
+        <v>45555.615722916671</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D195" s="11">
+        <v>20246932</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G195" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I195" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J195" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L195" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N195" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
+        <v>45555.615723807874</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D196" s="5">
+        <v>20246927</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G196" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J196" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N196" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A197" s="10">
+        <v>45555.616356134255</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" s="11">
+        <v>20212555</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H197" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I197" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N197" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>45555.618081932873</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20242138</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J198" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199" s="10">
+        <v>45555.633216412039</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D199" s="11">
+        <v>20244152</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I199" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J199" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K199" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L199" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M199" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>45555.654142175925</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20205165</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J200" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N200" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A201" s="10">
+        <v>45555.677357442131</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D201" s="11">
+        <v>20246218</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H201" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I201" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J201" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K201" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L201" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M201" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
+        <v>45555.678929814814</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20241220</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A203" s="10">
+        <v>45555.684774525464</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D203" s="11">
+        <v>20232745</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G203" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H203" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I203" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J203" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K203" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L203" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N203" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>45555.693315983794</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20242323</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J204" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A205" s="10">
+        <v>45555.693555590275</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D205" s="11">
+        <v>20214116</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G205" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H205" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I205" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J205" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K205" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L205" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M205" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
+        <v>45555.709389131945</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20246282</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G206" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J206" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N206" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A207" s="10">
+        <v>45555.714362638886</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D207" s="11">
+        <v>20205124</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I207" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J207" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K207" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L207" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N207" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>45555.714513495375</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20242128</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J208" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N208" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A209" s="10">
+        <v>45555.715527349537</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D209" s="11">
+        <v>20233716</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I209" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K209" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L209" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M209" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>45555.719100578703</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20241065</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G210" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N210" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A211" s="10">
+        <v>45555.724400057872</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D211" s="11">
+        <v>202170325</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G211" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H211" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I211" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J211" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K211" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L211" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M211" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
+        <v>45555.729877465274</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D212" s="5">
+        <v>20222606</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J212" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A213" s="10">
+        <v>45555.737441805555</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D213" s="11">
+        <v>20241068</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H213" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I213" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K213" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L213" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M213" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
+        <v>45555.762322731476</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D214" s="5">
+        <v>20246628</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G214" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J214" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N214" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A215" s="10">
+        <v>45555.781863854165</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D215" s="11">
+        <v>20246292</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H215" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I215" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J215" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K215" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L215" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M215" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
+        <v>45555.783661909722</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D216" s="5">
+        <v>20242424</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G216" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J216" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A217" s="10">
+        <v>45555.786670983798</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="11">
+        <v>20243806</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H217" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I217" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J217" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K217" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L217" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M217" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
+        <v>45555.836378541666</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D218" s="5">
+        <v>20243826</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G218" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J218" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N218" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219" s="10">
+        <v>45555.853769282403</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D219" s="11">
+        <v>20243236</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H219" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I219" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J219" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K219" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L219" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N219" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A220" s="4">
+        <v>45555.862377754631</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D220" s="5">
+        <v>20246248</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J220" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N220" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A221" s="10">
+        <v>45555.867884618056</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" s="11">
+        <v>20232937</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G221" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H221" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I221" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J221" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K221" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L221" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N221" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A222" s="4">
+        <v>45555.881127569446</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20242956</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G222" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J222" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A223" s="10">
+        <v>45555.888803368056</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D223" s="11">
+        <v>20246204</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G223" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H223" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I223" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J223" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K223" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L223" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M223" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A224" s="4">
+        <v>45555.902095300931</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D224" s="5">
+        <v>20233846</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G224" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J224" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N224" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225" s="10">
+        <v>45555.912298587966</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D225" s="11">
+        <v>20243062</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G225" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K225" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L225" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N225" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
+        <v>45555.964794282409</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D226" s="5">
+        <v>20216716</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N226" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A227" s="10">
+        <v>45555.9651012963</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D227" s="11">
+        <v>20213543</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G227" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H227" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I227" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J227" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K227" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L227" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N227" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A228" s="4">
+        <v>45555.97672979167</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D228" s="5">
+        <v>20201103</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G228" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J228" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N228" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229" s="10">
+        <v>45555.98846680556</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D229" s="11">
+        <v>20203046</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G229" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I229" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J229" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K229" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L229" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M229" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A230" s="4">
+        <v>45555.994684722224</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D230" s="5">
+        <v>20215239</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G230" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N230" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A231" s="10">
+        <v>45555.996712928245</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D231" s="11">
+        <v>20231706</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H231" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I231" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K231" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L231" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N231" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A232" s="4">
+        <v>45555.997732303236</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20242232</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A233" s="10">
+        <v>45556.009927083331</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D233" s="11">
+        <v>20242732</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G233" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H233" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K233" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L233" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N233" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A234" s="4">
+        <v>45556.045144675925</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D234" s="5">
+        <v>20243223</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J234" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N234" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235" s="10">
+        <v>45556.060741446759</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="D235" s="11">
+        <v>20212749</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G235" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H235" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I235" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J235" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K235" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L235" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N235" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236" s="4">
+        <v>45556.067842025463</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D236" s="5">
+        <v>20241526</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G236" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J236" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A237" s="10">
+        <v>45556.078303680551</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D237" s="11">
+        <v>20242240</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H237" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I237" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K237" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L237" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M237" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A238" s="4">
+        <v>45556.084562071759</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D238" s="5">
+        <v>20241509</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G238" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K238" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N238" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A239" s="10">
+        <v>45556.097150949077</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D239" s="11">
+        <v>20193644</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H239" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I239" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J239" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K239" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L239" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M239" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A240" s="4">
+        <v>45556.165808148144</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D240" s="5">
+        <v>20243000</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G240" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J240" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N240" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A241" s="10">
+        <v>45556.210927268519</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D241" s="11">
+        <v>20243031</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G241" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H241" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I241" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J241" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K241" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L241" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M241" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A242" s="4">
+        <v>45556.312908206019</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D242" s="5">
+        <v>20217135</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G242" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J242" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A243" s="10">
+        <v>45556.36157277778</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D243" s="11">
+        <v>20206628</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H243" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I243" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K243" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L243" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N243" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A244" s="4">
+        <v>45556.380192777782</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D244" s="5">
+        <v>20246271</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G244" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N244" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="10">
+        <v>45556.401307175925</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D245" s="11">
+        <v>20244120</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F245" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G245" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H245" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I245" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K245" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L245" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N245" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A246" s="4">
+        <v>45556.43255618056</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D246" s="5">
+        <v>20246752</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J246" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N246" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A247" s="10">
+        <v>45556.491740405094</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D247" s="11">
+        <v>20243715</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G247" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H247" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I247" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J247" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K247" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L247" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M247" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A248" s="4">
+        <v>45556.492733113424</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D248" s="5">
+        <v>20227034</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G248" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J248" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N248" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A249" s="10">
+        <v>45556.494521620371</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D249" s="11">
+        <v>20242118</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G249" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H249" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I249" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J249" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K249" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L249" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N249" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A250" s="4">
+        <v>45556.504999525467</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D250" s="5">
+        <v>20242725</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G250" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J250" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A251" s="10">
+        <v>45556.506099953709</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D251" s="11">
+        <v>20232361</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G251" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H251" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I251" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J251" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K251" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L251" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N251" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A252" s="4">
+        <v>45556.510917129628</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="5">
+        <v>20243830</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G252" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J252" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A253" s="10">
+        <v>45556.531260949079</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D253" s="11">
+        <v>20225175</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G253" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H253" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I253" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J253" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K253" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L253" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M253" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A254" s="4">
+        <v>45556.534688310188</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20181628</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G254" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J254" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N254" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A255" s="10">
+        <v>45556.542424421292</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D255" s="11">
+        <v>20242101</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G255" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J255" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K255" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L255" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N255" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A256" s="4">
+        <v>45556.544595150466</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D256" s="5">
+        <v>20242702</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G256" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N256" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A257" s="10">
+        <v>45556.564202337962</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D257" s="11">
+        <v>20202736</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G257" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H257" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I257" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J257" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K257" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L257" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N257" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A258" s="4">
+        <v>45556.567276134258</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D258" s="5">
+        <v>20201071</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G258" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J258" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N258" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A259" s="10">
+        <v>45556.574335972226</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" s="11">
+        <v>20243615</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G259" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H259" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I259" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J259" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K259" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L259" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N259" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A260" s="4">
+        <v>45556.581580127313</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D260" s="5">
+        <v>20246414</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G260" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J260" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A261" s="10">
+        <v>45556.588633078703</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D261" s="11">
+        <v>20243257</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G261" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H261" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I261" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K261" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L261" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N261" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A262" s="4">
+        <v>45556.59249116898</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D262" s="5">
+        <v>20203616</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G262" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J262" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N262" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A263" s="10">
+        <v>45556.600528819443</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D263" s="11">
+        <v>20211625</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G263" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H263" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I263" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J263" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K263" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L263" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N263" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A264" s="4">
+        <v>45556.601195439813</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D264" s="5">
+        <v>20246232</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G264" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J264" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N264" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A265" s="10">
+        <v>45556.605998969906</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D265" s="11">
+        <v>20242518</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G265" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H265" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I265" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J265" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K265" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L265" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M265" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266" s="4">
+        <v>45556.606678923607</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20205267</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G266" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J266" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A267" s="10">
+        <v>45556.609040717594</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267" s="11">
+        <v>20243941</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G267" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H267" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I267" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J267" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K267" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L267" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N267" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A268" s="4">
+        <v>45556.60965431713</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D268" s="5">
+        <v>20191604</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G268" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="10">
+        <v>45556.61394314815</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D269" s="11">
+        <v>20242901</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="F269" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G269" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H269" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I269" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K269" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L269" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M269" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A270" s="4">
+        <v>45556.627966759261</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D270" s="5">
+        <v>20205188</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G270" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J270" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A271" s="10">
+        <v>45556.628754432866</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271" s="11">
+        <v>20243801</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="F271" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G271" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H271" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I271" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J271" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K271" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L271" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M271" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A272" s="16">
+        <v>45556.632634548616</v>
+      </c>
+      <c r="B272" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D272" s="17">
+        <v>20243903</v>
+      </c>
+      <c r="E272" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="F272" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G272" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H272" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I272" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J272" s="20">
+        <v>0.151</v>
+      </c>
+      <c r="K272" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E298679A-C1ED-A04B-B984-BCE50D407CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF98E5F9-4E12-F549-A25B-4E32859977D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="721">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1950,6 +1950,240 @@
   </si>
   <si>
     <t>김나현</t>
+  </si>
+  <si>
+    <t>dlwl0898@naver.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>dearmy0819@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜원</t>
+  </si>
+  <si>
+    <t>cgim2421@gmaiI.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>pugagi77@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성화</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>skyflight0656@gmail.com</t>
+  </si>
+  <si>
+    <t>콘첸츠IT</t>
+  </si>
+  <si>
+    <t>한충서</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>twnety__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>yuvin0612@naver.com</t>
+  </si>
+  <si>
+    <t>장유빈</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>khj000818@naver.com</t>
+  </si>
+  <si>
+    <t>강현준</t>
+  </si>
+  <si>
+    <t>chaseoyeon0103@naver.com</t>
+  </si>
+  <si>
+    <t>차서연</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>dohojun1206@gmail.com</t>
+  </si>
+  <si>
+    <t>도호준</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>joazzzzz@naver.com</t>
+  </si>
+  <si>
+    <t>김진구</t>
+  </si>
+  <si>
+    <t>iaan0104@naver.com</t>
+  </si>
+  <si>
+    <t>조이안</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>kms050915@naver.com</t>
+  </si>
+  <si>
+    <t>강명수</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>leeyubin050328@naver.com</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2529,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N272">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N310">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2517,11 +2751,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N272"/>
+  <dimension ref="A1:N310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L292" sqref="L292"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L324" sqref="L324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5411,7 +5645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>45553.704483831018</v>
       </c>
@@ -5452,7 +5686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>45553.707261342592</v>
       </c>
@@ -5493,7 +5727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>45553.714789189813</v>
       </c>
@@ -5534,7 +5768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>45553.742279259255</v>
       </c>
@@ -5575,7 +5809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <v>45553.756887060183</v>
       </c>
@@ -5616,7 +5850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>45553.757156261578</v>
       </c>
@@ -13653,43 +13887,1601 @@
       </c>
     </row>
     <row r="272" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" s="16">
+      <c r="A272" s="4">
         <v>45556.632634548616</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D272" s="17">
+      <c r="D272" s="5">
         <v>20243903</v>
       </c>
-      <c r="E272" s="17" t="s">
+      <c r="E272" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="F272" s="18" t="s">
+      <c r="F272" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G272" s="19">
+      <c r="G272" s="7">
         <v>0.15</v>
       </c>
-      <c r="H272" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I272" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J272" s="20">
+      <c r="H272" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J272" s="8">
         <v>0.151</v>
       </c>
-      <c r="K272" s="17" t="s">
+      <c r="K272" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L272" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N272" s="21" t="s">
+      <c r="L272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273" s="10">
+        <v>45556.646555104162</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D273" s="11">
+        <v>20202561</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G273" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H273" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I273" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J273" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K273" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L273" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M273" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A274" s="4">
+        <v>45556.664586944447</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20242307</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G274" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J274" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N274" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A275" s="10">
+        <v>45556.66640884259</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D275" s="11">
+        <v>20246942</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="F275" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G275" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H275" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I275" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J275" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K275" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L275" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M275" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A276" s="4">
+        <v>45556.683638645831</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D276" s="5">
+        <v>20243225</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G276" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J276" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N276" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A277" s="10">
+        <v>45556.683799699073</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D277" s="11">
+        <v>20241517</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G277" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H277" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I277" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J277" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K277" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L277" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M277" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A278" s="4">
+        <v>45556.688840023147</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D278" s="5">
+        <v>20227093</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G278" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J278" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M278" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A279" s="10">
+        <v>45556.696608761573</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D279" s="11">
+        <v>20242971</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="F279" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G279" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H279" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I279" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J279" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K279" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L279" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M279" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280" s="4">
+        <v>45556.719727523145</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D280" s="5">
+        <v>20212566</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G280" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N280" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A281" s="10">
+        <v>45556.722344710652</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" s="11">
+        <v>20212971</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G281" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H281" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I281" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J281" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K281" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M281" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A282" s="4">
+        <v>45556.722472094909</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C282" s="5">
+        <v>20223739</v>
+      </c>
+      <c r="D282" s="5">
+        <v>20223739</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G282" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M282" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A283" s="10">
+        <v>45556.726580937495</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D283" s="11">
+        <v>20243712</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="F283" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G283" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H283" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I283" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J283" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K283" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L283" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M283" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A284" s="4">
+        <v>45556.781554895832</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20215269</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G284" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J284" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M284" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A285" s="10">
+        <v>45556.786617187499</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="D285" s="11">
+        <v>20205217</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G285" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H285" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J285" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K285" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L285" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M285" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A286" s="4">
+        <v>45556.789779027778</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D286" s="5">
+        <v>20242227</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G286" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J286" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M286" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A287" s="10">
+        <v>45556.806904513884</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D287" s="11">
+        <v>20243609</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G287" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H287" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I287" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J287" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K287" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L287" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M287" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>45556.807301817127</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D288" s="5">
+        <v>20243959</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G288" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J288" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N288" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A289" s="10">
+        <v>45556.816498206019</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" s="11">
+        <v>20213023</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G289" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H289" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I289" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J289" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K289" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L289" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N289" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A290" s="4">
+        <v>45556.821077962959</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D290" s="5">
+        <v>2023537</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G290" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J290" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L290" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M290" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A291" s="10">
+        <v>45556.824044444445</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D291" s="11">
+        <v>20205182</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G291" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H291" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I291" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K291" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L291" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M291" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A292" s="4">
+        <v>45556.825136273153</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D292" s="5">
+        <v>20204103</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G292" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J292" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K292" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L292" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N292" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A293" s="10">
+        <v>45556.826074791665</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D293" s="11">
+        <v>20241537</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G293" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H293" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I293" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J293" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K293" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M293" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A294" s="4">
+        <v>45556.828743923616</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D294" s="5">
+        <v>20242751</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G294" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J294" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M294" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A295" s="10">
+        <v>45556.839259062501</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D295" s="11">
+        <v>20243711</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G295" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H295" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I295" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J295" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K295" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L295" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N295" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A296" s="4">
+        <v>45556.843060381943</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D296" s="5">
+        <v>20201070</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G296" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L296" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N296" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A297" s="10">
+        <v>45556.846147280092</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="D297" s="11">
+        <v>20202706</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G297" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H297" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I297" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J297" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K297" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L297" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M297" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A298" s="4">
+        <v>45556.846227974536</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D298" s="5">
+        <v>20242844</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G298" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J298" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L298" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N298" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A299" s="10">
+        <v>45556.859844942126</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D299" s="11">
+        <v>20242503</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G299" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H299" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I299" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J299" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K299" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L299" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M299" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A300" s="4">
+        <v>45556.869264988425</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D300" s="5">
+        <v>20231708</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G300" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I300" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J300" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K300" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L300" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M300" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A301" s="10">
+        <v>45556.877319907406</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D301" s="11">
+        <v>20241520</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G301" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H301" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I301" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J301" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K301" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L301" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N301" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A302" s="4">
+        <v>45556.879236238427</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D302" s="5">
+        <v>20203213</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G302" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J302" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K302" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L302" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M302" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A303" s="10">
+        <v>45556.897538055557</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C303" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D303" s="11">
+        <v>20245259</v>
+      </c>
+      <c r="E303" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G303" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H303" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I303" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J303" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K303" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L303" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M303" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A304" s="4">
+        <v>45556.923971770833</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D304" s="5">
+        <v>20195158</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G304" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J304" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L304" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M304" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A305" s="10">
+        <v>45556.928253622682</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D305" s="11">
+        <v>20246902</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="F305" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G305" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H305" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I305" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J305" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K305" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L305" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M305" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A306" s="4">
+        <v>45556.941171493054</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D306" s="5">
+        <v>20236121</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G306" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J306" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L306" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M306" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A307" s="10">
+        <v>45556.974359409724</v>
+      </c>
+      <c r="B307" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="C307" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D307" s="11">
+        <v>20243008</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F307" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G307" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H307" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I307" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J307" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K307" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L307" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N307" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A308" s="4">
+        <v>45556.978149965274</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D308" s="5">
+        <v>20241515</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G308" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J308" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L308" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N308" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A309" s="10">
+        <v>45556.98621618055</v>
+      </c>
+      <c r="B309" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="C309" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="D309" s="11">
+        <v>20245207</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="F309" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G309" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H309" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I309" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J309" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K309" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L309" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M309" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A310" s="16">
+        <v>45556.993416111116</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D310" s="17">
+        <v>20246215</v>
+      </c>
+      <c r="E310" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G310" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I310" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J310" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K310" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L310" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N310" s="21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF98E5F9-4E12-F549-A25B-4E32859977D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32495B4-3E2A-5E43-A176-15F69A94E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="754">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2184,6 +2184,105 @@
   </si>
   <si>
     <t>김도희</t>
+  </si>
+  <si>
+    <t>algus5661@naver.com</t>
+  </si>
+  <si>
+    <t>최미현</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>hanyejun339@gmail.com</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>jeongminyoung@naver.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>jyj111212@naver.com</t>
+  </si>
+  <si>
+    <t>장예지</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2396,26 +2495,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2477,9 +2561,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2529,7 +2610,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N310">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N326">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2751,11 +2832,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N310"/>
+  <dimension ref="A1:N326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L324" sqref="L324"/>
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5645,7 +5726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <v>45553.704483831018</v>
       </c>
@@ -5686,7 +5767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>45553.707261342592</v>
       </c>
@@ -5727,7 +5808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <v>45553.714789189813</v>
       </c>
@@ -5768,7 +5849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>45553.742279259255</v>
       </c>
@@ -5809,7 +5890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <v>45553.756887060183</v>
       </c>
@@ -5850,7 +5931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>45553.757156261578</v>
       </c>
@@ -15445,43 +15526,699 @@
       </c>
     </row>
     <row r="310" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A310" s="16">
+      <c r="A310" s="4">
         <v>45556.993416111116</v>
       </c>
-      <c r="B310" s="17" t="s">
+      <c r="B310" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D310" s="17">
+      <c r="D310" s="5">
         <v>20246215</v>
       </c>
-      <c r="E310" s="17" t="s">
+      <c r="E310" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="F310" s="18" t="s">
+      <c r="F310" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G310" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H310" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I310" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J310" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K310" s="17" t="s">
+      <c r="G310" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J310" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K310" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L310" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N310" s="21" t="s">
+      <c r="L310" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N310" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A311" s="10">
+        <v>45557.008240185183</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D311" s="11">
+        <v>20242355</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="F311" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G311" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H311" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I311" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J311" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K311" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L311" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N311" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A312" s="4">
+        <v>45557.018507430555</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" s="5">
+        <v>20233060</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G312" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J312" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K312" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L312" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N312" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A313" s="10">
+        <v>45557.027223946759</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D313" s="11">
+        <v>20246649</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="F313" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G313" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H313" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I313" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J313" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K313" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L313" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N313" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A314" s="4">
+        <v>45557.027746597218</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D314" s="5">
+        <v>20245183</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G314" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J314" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L314" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N314" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A315" s="10">
+        <v>45557.044661793982</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D315" s="11">
+        <v>20192876</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G315" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H315" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I315" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J315" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K315" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L315" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N315" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A316" s="4">
+        <v>45557.048238483796</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D316" s="5">
+        <v>20193844</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G316" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J316" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L316" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M316" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A317" s="10">
+        <v>45557.053065451386</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D317" s="11">
+        <v>20217015</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="F317" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G317" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H317" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I317" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J317" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K317" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L317" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M317" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A318" s="4">
+        <v>45557.05606717593</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D318" s="5">
+        <v>20201007</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G318" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J318" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L318" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N318" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A319" s="10">
+        <v>45557.056802141204</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D319" s="11">
+        <v>20217097</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="F319" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H319" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I319" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J319" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K319" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N319" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A320" s="4">
+        <v>45557.088930231483</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D320" s="5">
+        <v>20243921</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G320" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J320" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L320" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M320" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A321" s="10">
+        <v>45557.092805451393</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C321" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D321" s="11">
+        <v>20205240</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="F321" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G321" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H321" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I321" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J321" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K321" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L321" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N321" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A322" s="4">
+        <v>45557.145568888889</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D322" s="5">
+        <v>20246281</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G322" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J322" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L322" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M322" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A323" s="10">
+        <v>45557.166484212961</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D323" s="11">
+        <v>20242327</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="F323" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G323" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H323" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I323" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J323" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K323" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L323" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M323" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A324" s="4">
+        <v>45557.20071907407</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D324" s="5">
+        <v>20241083</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G324" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L324" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N324" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A325" s="10">
+        <v>45557.222019027773</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C325" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D325" s="11">
+        <v>20231623</v>
+      </c>
+      <c r="E325" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="F325" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G325" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H325" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I325" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J325" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K325" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L325" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N325" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A326" s="16">
+        <v>45557.22665261574</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D326" s="17">
+        <v>20246782</v>
+      </c>
+      <c r="E326" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="F326" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G326" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H326" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I326" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J326" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K326" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L326" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M326" s="17" t="s">
         <v>41</v>
       </c>
     </row>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32495B4-3E2A-5E43-A176-15F69A94E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A802A4-D77F-154D-9993-ED9902FB494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="776">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2283,6 +2283,72 @@
   </si>
   <si>
     <t>최성민</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>sasa8294@gmail.com</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>johyeram@gmail.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>jcy1569@naver.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>rlaalstjd051003@naver.com</t>
+  </si>
+  <si>
+    <t>sws62550100@gmail.com</t>
+  </si>
+  <si>
+    <t>서우성</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>dngud4@naver.com</t>
+  </si>
+  <si>
+    <t>이우형</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmil.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2470,10 +2536,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2482,13 +2548,28 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2499,7 +2580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2561,6 +2642,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2610,7 +2694,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N326">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N337">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2832,11 +2916,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N326"/>
+  <dimension ref="A1:N337"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G354" sqref="G354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16182,43 +16266,494 @@
       </c>
     </row>
     <row r="326" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A326" s="16">
+      <c r="A326" s="4">
         <v>45557.22665261574</v>
       </c>
-      <c r="B326" s="17" t="s">
+      <c r="B326" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="C326" s="17" t="s">
+      <c r="C326" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D326" s="17">
+      <c r="D326" s="5">
         <v>20246782</v>
       </c>
-      <c r="E326" s="17" t="s">
+      <c r="E326" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="F326" s="18" t="s">
+      <c r="F326" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G326" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H326" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I326" s="17" t="s">
+      <c r="G326" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I326" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J326" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K326" s="17" t="s">
+      <c r="J326" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K326" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L326" s="17" t="s">
+      <c r="L326" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M326" s="17" t="s">
+      <c r="M326" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A327" s="10">
+        <v>45557.350459837966</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="D327" s="11">
+        <v>20231622</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F327" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G327" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H327" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I327" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J327" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K327" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L327" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M327" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A328" s="4">
+        <v>45557.382391307867</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D328" s="5">
+        <v>20193226</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G328" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J328" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K328" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L328" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M328" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A329" s="10">
+        <v>45557.398846145836</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D329" s="11">
+        <v>20215109</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="F329" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G329" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H329" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I329" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J329" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K329" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L329" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M329" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A330" s="4">
+        <v>45557.401386620375</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D330" s="5">
+        <v>20227022</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G330" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J330" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L330" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M330" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A331" s="10">
+        <v>45557.402997824072</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C331" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D331" s="11">
+        <v>20161632</v>
+      </c>
+      <c r="E331" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="F331" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G331" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H331" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I331" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J331" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K331" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L331" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M331" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A332" s="4">
+        <v>45557.439302222221</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D332" s="5">
+        <v>20241010</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G332" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J332" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L332" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N332" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A333" s="10">
+        <v>45557.467804861109</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D333" s="11">
+        <v>20227036</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="F333" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G333" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H333" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I333" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J333" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K333" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L333" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N333" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A334" s="4">
+        <v>45557.470426203705</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D334" s="5">
+        <v>20242632</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G334" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J334" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M334" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A335" s="10">
+        <v>45557.52754466435</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D335" s="11">
+        <v>20222424</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="F335" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G335" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H335" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I335" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K335" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L335" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M335" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A336" s="4">
+        <v>45557.532828888885</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D336" s="5">
+        <v>20242736</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G336" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L336" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N336" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A337" s="16">
+        <v>45557.553529375</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="C337" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" s="17">
+        <v>20222933</v>
+      </c>
+      <c r="E337" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="F337" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G337" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H337" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I337" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J337" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K337" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L337" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N337" s="21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A802A4-D77F-154D-9993-ED9902FB494A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C63B1D-B44D-E54B-868B-701ED7C1A3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="831">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2349,6 +2349,171 @@
   </si>
   <si>
     <t>김혜원</t>
+  </si>
+  <si>
+    <t>ejsl5231@gmail.com</t>
+  </si>
+  <si>
+    <t>디지탈미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>이유찬</t>
+  </si>
+  <si>
+    <t>jeongeun20050618@gmail.com</t>
+  </si>
+  <si>
+    <t>권정은</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>jwtp724@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>박이선</t>
+  </si>
+  <si>
+    <t>kwakmin427@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민규</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>seostone1018@gmail.com</t>
+  </si>
+  <si>
+    <t>서준석</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>dustinwon2005@gmail.com</t>
+  </si>
+  <si>
+    <t>원지현</t>
+  </si>
+  <si>
+    <t>1202kge@naver.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>dbwjdgus03@naver.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>ksy91637@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>운석현</t>
   </si>
 </sst>
 </file>
@@ -2536,10 +2701,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2548,13 +2713,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2563,13 +2728,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2694,7 +2859,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N337">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N362">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2916,11 +3081,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N337"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G354" sqref="G354"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J375" sqref="J375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16717,43 +16882,1068 @@
       </c>
     </row>
     <row r="337" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A337" s="16">
+      <c r="A337" s="10">
         <v>45557.553529375</v>
       </c>
-      <c r="B337" s="17" t="s">
+      <c r="B337" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="C337" s="17" t="s">
+      <c r="C337" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D337" s="17">
+      <c r="D337" s="11">
         <v>20222933</v>
       </c>
-      <c r="E337" s="17" t="s">
+      <c r="E337" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="F337" s="18" t="s">
+      <c r="F337" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G337" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H337" s="17" t="s">
+      <c r="G337" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H337" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I337" s="17" t="s">
+      <c r="I337" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J337" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K337" s="17" t="s">
+      <c r="J337" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K337" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L337" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N337" s="21" t="s">
+      <c r="L337" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N337" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A338" s="4">
+        <v>45557.576757893519</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D338" s="5">
+        <v>20225223</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G338" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J338" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L338" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N338" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A339" s="10">
+        <v>45557.578286886579</v>
+      </c>
+      <c r="B339" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D339" s="11">
+        <v>20243703</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="F339" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G339" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H339" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I339" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J339" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K339" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L339" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N339" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A340" s="4">
+        <v>45557.582819710646</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340" s="5">
+        <v>20222715</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G340" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I340" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J340" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K340" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L340" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N340" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A341" s="10">
+        <v>45557.58527171296</v>
+      </c>
+      <c r="B341" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="C341" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D341" s="11">
+        <v>20227078</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="F341" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G341" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H341" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I341" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J341" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K341" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L341" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M341" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A342" s="4">
+        <v>45557.58675923611</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D342" s="5">
+        <v>20214143</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F342" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G342" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J342" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K342" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L342" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N342" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A343" s="10">
+        <v>45557.614653553246</v>
+      </c>
+      <c r="B343" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C343" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D343" s="11">
+        <v>20245161</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="F343" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G343" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H343" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I343" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J343" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K343" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L343" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N343" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A344" s="4">
+        <v>45557.618211979163</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D344" s="5">
+        <v>20206504</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G344" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I344" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J344" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L344" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N344" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A345" s="10">
+        <v>45557.619759502311</v>
+      </c>
+      <c r="B345" s="11" t="s">
+        <v>792</v>
+      </c>
+      <c r="C345" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D345" s="11">
+        <v>20243605</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G345" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H345" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I345" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J345" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K345" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L345" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N345" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A346" s="4">
+        <v>45557.626562592588</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D346" s="5">
+        <v>20215187</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F346" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G346" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J346" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L346" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N346" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A347" s="10">
+        <v>45557.635251435189</v>
+      </c>
+      <c r="B347" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D347" s="11">
+        <v>20215158</v>
+      </c>
+      <c r="E347" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="F347" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G347" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H347" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I347" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J347" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K347" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L347" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N347" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A348" s="4">
+        <v>45557.638157326393</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D348" s="5">
+        <v>20227106</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F348" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G348" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J348" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L348" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N348" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A349" s="10">
+        <v>45557.64318201389</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="C349" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D349" s="11">
+        <v>20207065</v>
+      </c>
+      <c r="E349" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="F349" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G349" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H349" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I349" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K349" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L349" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M349" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A350" s="4">
+        <v>45557.645460740736</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D350" s="5">
+        <v>20242306</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F350" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G350" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I350" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J350" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K350" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L350" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N350" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A351" s="10">
+        <v>45557.657216180552</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C351" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D351" s="11">
+        <v>20242737</v>
+      </c>
+      <c r="E351" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="F351" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H351" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I351" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J351" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K351" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L351" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M351" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A352" s="4">
+        <v>45557.662583495374</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D352" s="5">
+        <v>20243227</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G352" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I352" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J352" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L352" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A353" s="10">
+        <v>45557.663817384258</v>
+      </c>
+      <c r="B353" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D353" s="11">
+        <v>20206623</v>
+      </c>
+      <c r="E353" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="F353" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G353" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H353" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I353" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J353" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K353" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L353" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N353" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A354" s="4">
+        <v>45557.665914837962</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D354" s="5">
+        <v>20246747</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G354" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I354" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L354" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N354" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A355" s="10">
+        <v>45557.683198437502</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C355" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D355" s="11">
+        <v>20242205</v>
+      </c>
+      <c r="E355" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="F355" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G355" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H355" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I355" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J355" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K355" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M355" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A356" s="4">
+        <v>45557.684514687498</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D356" s="5">
+        <v>20243214</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G356" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I356" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J356" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L356" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M356" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A357" s="10">
+        <v>45557.685720451387</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="C357" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="D357" s="11">
+        <v>20231205</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="F357" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G357" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H357" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I357" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J357" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K357" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L357" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N357" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A358" s="4">
+        <v>45557.691501365742</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D358" s="5">
+        <v>20236739</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G358" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J358" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L358" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M358" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A359" s="10">
+        <v>45557.705193796297</v>
+      </c>
+      <c r="B359" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="C359" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D359" s="11">
+        <v>20184132</v>
+      </c>
+      <c r="E359" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="F359" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G359" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H359" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I359" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J359" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K359" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L359" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N359" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A360" s="4">
+        <v>45557.717696712964</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D360" s="5">
+        <v>20223523</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G360" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I360" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J360" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K360" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M360" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A361" s="10">
+        <v>45557.733532534723</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="C361" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="D361" s="11">
+        <v>20205139</v>
+      </c>
+      <c r="E361" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="F361" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G361" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H361" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I361" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J361" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K361" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L361" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N361" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A362" s="16">
+        <v>45557.747462743057</v>
+      </c>
+      <c r="B362" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="C362" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="D362" s="17">
+        <v>20205260</v>
+      </c>
+      <c r="E362" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="F362" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G362" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H362" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I362" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K362" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L362" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N362" s="21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C63B1D-B44D-E54B-868B-701ED7C1A3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45980ABD-CED0-FB47-AE49-41F5E8920694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="981">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2514,6 +2514,456 @@
   </si>
   <si>
     <t>운석현</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.com</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>oj5803@naver.com</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>wldus0859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>duhwan123@naver.com</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>한림대학교</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>alfodbdgkqtmznf</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>mkjk1227@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>hhr0408@naver.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김 영</t>
+  </si>
+  <si>
+    <t>u151pp@gmail.com</t>
+  </si>
+  <si>
+    <t>장대건</t>
+  </si>
+  <si>
+    <t>juhui050356@naver.com</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>체육학과.</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>syckjjperfect9160@naver.com</t>
+  </si>
+  <si>
+    <t>송현우</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>bom031417@naver.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">금융재무학과 </t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>kmg0187@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>goemf100@naver.com</t>
+  </si>
+  <si>
+    <t>jaekyung001203@gmail.com</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>jhjh1985@naver.com</t>
+  </si>
+  <si>
+    <t>정재현</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>dudwni09@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보하과</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>lattace05@gmail.com</t>
+  </si>
+  <si>
+    <t>정치행정</t>
+  </si>
+  <si>
+    <t>최동희</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>ilylive@naver.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>jongh0516@naver.com</t>
+  </si>
+  <si>
+    <t>오종학</t>
+  </si>
+  <si>
+    <t>ssw805525@naver.com</t>
+  </si>
+  <si>
+    <t>박찬</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>jangjunhyeok1001@naver.com</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>nye3799@naver.com</t>
+  </si>
+  <si>
+    <t>노예은</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>동형원</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>hjjj051014@naver.com</t>
+  </si>
+  <si>
+    <t>안효정</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@gmail.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>brad0808@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
   </si>
 </sst>
 </file>
@@ -2701,10 +3151,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2713,13 +3163,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2728,13 +3178,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2859,7 +3309,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N362">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N433">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3081,11 +3531,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N362"/>
+  <dimension ref="A1:N433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J375" sqref="J375"/>
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L359" sqref="L359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17907,44 +18357,2955 @@
       </c>
     </row>
     <row r="362" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A362" s="16">
+      <c r="A362" s="4">
         <v>45557.747462743057</v>
       </c>
-      <c r="B362" s="17" t="s">
+      <c r="B362" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="C362" s="17" t="s">
+      <c r="C362" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D362" s="17">
+      <c r="D362" s="5">
         <v>20205260</v>
       </c>
-      <c r="E362" s="17" t="s">
+      <c r="E362" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="F362" s="18" t="s">
+      <c r="F362" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G362" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H362" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I362" s="17" t="s">
+      <c r="G362" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I362" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J362" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K362" s="17" t="s">
+      <c r="J362" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K362" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L362" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N362" s="21" t="s">
+      <c r="L362" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N362" s="9" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A363" s="10">
+        <v>45557.751372314815</v>
+      </c>
+      <c r="B363" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="C363" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" s="11">
+        <v>20233031</v>
+      </c>
+      <c r="E363" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G363" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H363" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I363" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J363" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K363" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L363" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N363" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A364" s="4">
+        <v>45557.752337395832</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D364" s="5">
+        <v>20192737</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G364" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J364" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A365" s="10">
+        <v>45557.756593391205</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D365" s="11">
+        <v>20224123</v>
+      </c>
+      <c r="E365" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="F365" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G365" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H365" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I365" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J365" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K365" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N365" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A366" s="4">
+        <v>45557.758804247685</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="D366" s="5">
+        <v>20232938</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G366" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J366" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N366" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A367" s="10">
+        <v>45557.762339618057</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D367" s="11">
+        <v>20242440</v>
+      </c>
+      <c r="E367" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="F367" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G367" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H367" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I367" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J367" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K367" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L367" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N367" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A368" s="4">
+        <v>45557.783027638885</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D368" s="5">
+        <v>20242628</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G368" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L368" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N368" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A369" s="10">
+        <v>45557.786636666671</v>
+      </c>
+      <c r="B369" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D369" s="11">
+        <v>20242618</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="F369" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G369" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H369" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I369" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J369" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K369" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L369" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M369" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A370" s="4">
+        <v>45557.786673981478</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D370" s="5">
+        <v>20201031</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G370" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J370" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L370" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N370" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A371" s="10">
+        <v>45557.789175474536</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C371" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D371" s="11">
+        <v>20172719</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="F371" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G371" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H371" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I371" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J371" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K371" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L371" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N371" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>45557.815875729168</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D372" s="5">
+        <v>20243432</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="F372" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G372" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J372" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L372" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M372" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A373" s="10">
+        <v>45557.824858032407</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D373" s="11">
+        <v>20197126</v>
+      </c>
+      <c r="E373" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="F373" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G373" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H373" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I373" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J373" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K373" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L373" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M373" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A374" s="4">
+        <v>45557.827106956014</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D374" s="5">
+        <v>20246603</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F374" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G374" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J374" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L374" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M374" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A375" s="10">
+        <v>45557.830955081023</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="C375" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D375" s="11">
+        <v>20212840</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G375" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H375" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I375" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J375" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K375" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L375" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M375" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A376" s="4">
+        <v>45557.832620358793</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D376" s="5">
+        <v>20246648</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F376" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G376" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J376" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K376" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L376" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N376" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A377" s="10">
+        <v>45557.835595370372</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D377" s="11">
+        <v>20215144</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="F377" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G377" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H377" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I377" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J377" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K377" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L377" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M377" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>45557.837590902782</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" s="5">
+        <v>20202925</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="F378" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G378" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J378" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M378" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A379" s="10">
+        <v>45557.846603148151</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="C379" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D379" s="11">
+        <v>20243246</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="F379" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G379" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H379" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I379" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J379" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K379" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L379" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M379" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>45557.849391446754</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D380" s="5">
+        <v>20242111</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="F380" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G380" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J380" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L380" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M380" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A381" s="10">
+        <v>45557.851455324075</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D381" s="11">
+        <v>20241044</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F381" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G381" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H381" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I381" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J381" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K381" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L381" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N381" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A382" s="4">
+        <v>45557.85514579861</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D382" s="5">
+        <v>20192616</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F382" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G382" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J382" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M382" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A383" s="10">
+        <v>45557.855427511575</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="D383" s="11">
+        <v>20243354</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F383" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G383" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H383" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I383" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J383" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K383" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L383" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N383" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A384" s="4">
+        <v>45557.855650543977</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D384" s="5">
+        <v>20222905</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="F384" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G384" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J384" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L384" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N384" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A385" s="10">
+        <v>45557.860534652777</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D385" s="11">
+        <v>20242995</v>
+      </c>
+      <c r="E385" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="F385" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H385" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J385" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K385" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L385" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M385" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A386" s="4">
+        <v>45557.861205324079</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D386" s="5">
+        <v>20243829</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="F386" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G386" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I386" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J386" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L386" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N386" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A387" s="10">
+        <v>45557.862233067128</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="D387" s="11">
+        <v>20193305</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="F387" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G387" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H387" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I387" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J387" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K387" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L387" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N387" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A388" s="4">
+        <v>45557.865718252317</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D388" s="5">
+        <v>20243813</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="F388" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G388" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J388" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L388" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N388" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A389" s="10">
+        <v>45557.871383599537</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D389" s="11">
+        <v>20244130</v>
+      </c>
+      <c r="E389" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="F389" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G389" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H389" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I389" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J389" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K389" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L389" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M389" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A390" s="4">
+        <v>45557.881113796291</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="D390" s="5">
+        <v>20244110</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="F390" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G390" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J390" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L390" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M390" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A391" s="10">
+        <v>45557.881203460653</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="C391" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D391" s="11">
+        <v>20203635</v>
+      </c>
+      <c r="E391" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="F391" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G391" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H391" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I391" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J391" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K391" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L391" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M391" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A392" s="4">
+        <v>45557.883378981482</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D392" s="5">
+        <v>20223010</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="F392" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G392" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I392" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J392" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K392" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L392" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N392" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A393" s="10">
+        <v>45557.887590914353</v>
+      </c>
+      <c r="B393" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D393" s="11">
+        <v>20202335</v>
+      </c>
+      <c r="E393" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="F393" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G393" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H393" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I393" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J393" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K393" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L393" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M393" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A394" s="4">
+        <v>45557.890678657408</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D394" s="5">
+        <v>20203026</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I394" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J394" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L394" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N394" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A395" s="10">
+        <v>45557.894595659724</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="C395" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D395" s="11">
+        <v>20192634</v>
+      </c>
+      <c r="E395" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="F395" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G395" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H395" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I395" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J395" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K395" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L395" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M395" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A396" s="4">
+        <v>45557.898286886571</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D396" s="5">
+        <v>20231733</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="F396" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G396" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I396" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J396" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K396" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L396" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N396" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A397" s="10">
+        <v>45557.902334548606</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="D397" s="11">
+        <v>20203302</v>
+      </c>
+      <c r="E397" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F397" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G397" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H397" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I397" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J397" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K397" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L397" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N397" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A398" s="4">
+        <v>45557.903141342591</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D398" s="5">
+        <v>20207089</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="F398" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G398" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I398" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J398" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L398" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M398" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A399" s="10">
+        <v>45557.903444965283</v>
+      </c>
+      <c r="B399" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="D399" s="11">
+        <v>20213533</v>
+      </c>
+      <c r="E399" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="F399" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G399" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H399" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I399" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J399" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K399" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L399" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N399" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A400" s="4">
+        <v>45557.910805196763</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D400" s="5">
+        <v>20246222</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="F400" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G400" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J400" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L400" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N400" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A401" s="10">
+        <v>45557.911650231486</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>913</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D401" s="11">
+        <v>20203802</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>914</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G401" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H401" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I401" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J401" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K401" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L401" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N401" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A402" s="4">
+        <v>45557.928833912039</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D402" s="5">
+        <v>20234128</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="F402" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G402" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J402" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L402" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M402" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A403" s="10">
+        <v>45557.93620974537</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D403" s="11">
+        <v>20222709</v>
+      </c>
+      <c r="E403" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F403" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G403" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H403" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I403" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J403" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K403" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L403" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N403" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A404" s="4">
+        <v>45557.955124548607</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D404" s="5">
+        <v>20213230</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F404" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G404" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J404" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L404" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N404" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A405" s="10">
+        <v>45557.956691747684</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D405" s="11">
+        <v>20212754</v>
+      </c>
+      <c r="E405" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="F405" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G405" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H405" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I405" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J405" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K405" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L405" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M405" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A406" s="4">
+        <v>45557.961316909721</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D406" s="5">
+        <v>20243803</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="F406" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G406" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J406" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K406" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L406" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N406" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A407" s="10">
+        <v>45557.964395162038</v>
+      </c>
+      <c r="B407" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D407" s="11">
+        <v>20243850</v>
+      </c>
+      <c r="E407" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="F407" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G407" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H407" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I407" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K407" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L407" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M407" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A408" s="4">
+        <v>45557.964646192129</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D408" s="5">
+        <v>20242981</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="F408" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G408" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I408" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J408" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K408" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L408" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M408" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A409" s="10">
+        <v>45557.975651759261</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="D409" s="11">
+        <v>20212603</v>
+      </c>
+      <c r="E409" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="F409" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G409" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H409" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I409" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J409" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K409" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L409" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M409" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A410" s="4">
+        <v>45557.97644849537</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D410" s="5">
+        <v>20242439</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F410" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G410" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I410" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J410" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L410" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N410" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A411" s="10">
+        <v>45557.985570879631</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D411" s="11">
+        <v>20232637</v>
+      </c>
+      <c r="E411" s="11" t="s">
+        <v>935</v>
+      </c>
+      <c r="F411" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G411" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H411" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I411" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K411" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L411" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M411" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A412" s="4">
+        <v>45557.99497266204</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D412" s="5">
+        <v>20203423</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="F412" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G412" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I412" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J412" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K412" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L412" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M412" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A413" s="10">
+        <v>45558.022969618054</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="C413" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D413" s="11">
+        <v>20231621</v>
+      </c>
+      <c r="E413" s="11" t="s">
+        <v>939</v>
+      </c>
+      <c r="F413" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G413" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H413" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I413" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J413" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K413" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L413" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M413" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A414" s="4">
+        <v>45558.023777048613</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D414" s="5">
+        <v>20182919</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F414" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G414" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H414" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I414" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J414" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L414" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M414" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A415" s="10">
+        <v>45558.028619571764</v>
+      </c>
+      <c r="B415" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D415" s="11">
+        <v>20204123</v>
+      </c>
+      <c r="E415" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="F415" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G415" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H415" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I415" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J415" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K415" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L415" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N415" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A416" s="4">
+        <v>45558.03390076389</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="D416" s="5">
+        <v>20203352</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="F416" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G416" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H416" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I416" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J416" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K416" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L416" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M416" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A417" s="10">
+        <v>45558.039026666665</v>
+      </c>
+      <c r="B417" s="11" t="s">
+        <v>947</v>
+      </c>
+      <c r="C417" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D417" s="11">
+        <v>20242336</v>
+      </c>
+      <c r="E417" s="11" t="s">
+        <v>948</v>
+      </c>
+      <c r="F417" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G417" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H417" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I417" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J417" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K417" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M417" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A418" s="4">
+        <v>45558.039169351847</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="D418" s="5">
+        <v>20193341</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="F418" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G418" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I418" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J418" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K418" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L418" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N418" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A419" s="10">
+        <v>45558.049158425929</v>
+      </c>
+      <c r="B419" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="C419" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D419" s="11">
+        <v>20243414</v>
+      </c>
+      <c r="E419" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F419" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G419" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H419" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I419" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J419" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K419" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L419" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N419" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A420" s="4">
+        <v>45558.054258321761</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D420" s="5">
+        <v>20182436</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="F420" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G420" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I420" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J420" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K420" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L420" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M420" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A421" s="10">
+        <v>45558.076175069444</v>
+      </c>
+      <c r="B421" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="C421" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D421" s="11">
+        <v>20191084</v>
+      </c>
+      <c r="E421" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="F421" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G421" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H421" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I421" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J421" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K421" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L421" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M421" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A422" s="4">
+        <v>45558.143348240745</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D422" s="5">
+        <v>20233710</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F422" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G422" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I422" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J422" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K422" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L422" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N422" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A423" s="10">
+        <v>45558.440817164352</v>
+      </c>
+      <c r="B423" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="C423" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D423" s="11">
+        <v>20233717</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="F423" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G423" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H423" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I423" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J423" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K423" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L423" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N423" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A424" s="4">
+        <v>45558.463203900465</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="D424" s="5">
+        <v>20243314</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="F424" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I424" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J424" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K424" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L424" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M424" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A425" s="10">
+        <v>45558.475091250002</v>
+      </c>
+      <c r="B425" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="C425" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D425" s="11">
+        <v>20243710</v>
+      </c>
+      <c r="E425" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="F425" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G425" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H425" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I425" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J425" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K425" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L425" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N425" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A426" s="4">
+        <v>45558.482334340282</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D426" s="5">
+        <v>20243628</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="F426" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G426" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I426" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J426" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K426" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L426" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N426" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A427" s="10">
+        <v>45558.492615902782</v>
+      </c>
+      <c r="B427" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="C427" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D427" s="11">
+        <v>20213064</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="F427" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G427" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H427" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I427" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J427" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K427" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L427" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M427" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A428" s="4">
+        <v>45558.54231582176</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D428" s="5">
+        <v>20241234</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="F428" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G428" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I428" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J428" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K428" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L428" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N428" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A429" s="10">
+        <v>45558.545869548616</v>
+      </c>
+      <c r="B429" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C429" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D429" s="11">
+        <v>20243426</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="F429" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G429" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H429" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J429" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K429" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L429" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M429" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A430" s="4">
+        <v>45558.576114120369</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D430" s="5">
+        <v>20214104</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="F430" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G430" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I430" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J430" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K430" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L430" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N430" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A431" s="10">
+        <v>45558.589487476856</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D431" s="11">
+        <v>20245154</v>
+      </c>
+      <c r="E431" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="F431" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G431" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H431" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I431" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J431" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K431" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L431" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M431" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A432" s="4">
+        <v>45558.625476469912</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D432" s="5">
+        <v>20246405</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="F432" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G432" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I432" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J432" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K432" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L432" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N432" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A433" s="16">
+        <v>45558.642801412032</v>
+      </c>
+      <c r="B433" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C433" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D433" s="17">
+        <v>20233408</v>
+      </c>
+      <c r="E433" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="F433" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G433" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H433" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I433" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J433" s="20">
+        <v>0.151</v>
+      </c>
+      <c r="K433" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L433" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N433" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45980ABD-CED0-FB47-AE49-41F5E8920694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EC2442-3324-884B-948A-C133BCAEB6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="1068">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2964,6 +2964,267 @@
   </si>
   <si>
     <t>남은진</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>s707876@gmail.com</t>
+  </si>
+  <si>
+    <t>한채민</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>kyj57980@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>gisung5864@gmail.com</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>hyerim0v0@gmail.com</t>
+  </si>
+  <si>
+    <t>전혜림</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>kjins1234@naver.com</t>
+  </si>
+  <si>
+    <t>김진수</t>
+  </si>
+  <si>
+    <t>appmax1115@gmail.com</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>yu_min1220@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>황유민</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이승재 </t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>lcw1309@gmail.com</t>
+  </si>
+  <si>
+    <t>이채원</t>
+  </si>
+  <si>
+    <t>nickjjang7@naver.com</t>
+  </si>
+  <si>
+    <t>옥석현</t>
+  </si>
+  <si>
+    <t>dhwldnjs4@gmail.com</t>
+  </si>
+  <si>
+    <t>오지원</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
+  </si>
+  <si>
+    <t>zjxps2007@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 it전공</t>
+  </si>
+  <si>
+    <t>조인호</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>h20192983@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>디지털인문예술</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
   </si>
 </sst>
 </file>
@@ -3003,7 +3264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3151,10 +3412,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3163,28 +3424,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3195,7 +3441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3257,9 +3503,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3309,7 +3552,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N433">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N474">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3531,11 +3774,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N433"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L359" sqref="L359"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I438" sqref="I438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21268,43 +21511,1724 @@
       </c>
     </row>
     <row r="433" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A433" s="16">
+      <c r="A433" s="10">
         <v>45558.642801412032</v>
       </c>
-      <c r="B433" s="17" t="s">
+      <c r="B433" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="C433" s="17" t="s">
+      <c r="C433" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D433" s="17">
+      <c r="D433" s="11">
         <v>20233408</v>
       </c>
-      <c r="E433" s="17" t="s">
+      <c r="E433" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="F433" s="18" t="s">
+      <c r="F433" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G433" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H433" s="17" t="s">
+      <c r="G433" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H433" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I433" s="17" t="s">
+      <c r="I433" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J433" s="20">
+      <c r="J433" s="14">
         <v>0.151</v>
       </c>
-      <c r="K433" s="17" t="s">
+      <c r="K433" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L433" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N433" s="21" t="s">
+      <c r="L433" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N433" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A434" s="4">
+        <v>45558.718652905096</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D434" s="5">
+        <v>20242363</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="F434" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G434" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J434" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K434" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L434" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M434" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A435" s="10">
+        <v>45558.739271516199</v>
+      </c>
+      <c r="B435" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="C435" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D435" s="11">
+        <v>20243905</v>
+      </c>
+      <c r="E435" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G435" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H435" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I435" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J435" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K435" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M435" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A436" s="4">
+        <v>45558.805244293981</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="D436" s="5">
+        <v>20192926</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="F436" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G436" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I436" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J436" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K436" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L436" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M436" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A437" s="10">
+        <v>45558.816285752313</v>
+      </c>
+      <c r="B437" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="C437" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D437" s="11">
+        <v>20191226</v>
+      </c>
+      <c r="E437" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="F437" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G437" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H437" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I437" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J437" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K437" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L437" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M437" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A438" s="4">
+        <v>45558.822771979168</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D438" s="5">
+        <v>20242241</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="F438" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G438" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J438" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K438" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L438" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M438" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A439" s="10">
+        <v>45558.834999872684</v>
+      </c>
+      <c r="B439" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="C439" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D439" s="11">
+        <v>20242347</v>
+      </c>
+      <c r="E439" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="F439" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G439" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H439" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I439" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J439" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K439" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L439" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M439" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A440" s="4">
+        <v>45558.880647256941</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D440" s="5">
+        <v>20243938</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="F440" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J440" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K440" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L440" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N440" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A441" s="10">
+        <v>45558.888207939817</v>
+      </c>
+      <c r="B441" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="C441" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D441" s="11">
+        <v>20242411</v>
+      </c>
+      <c r="E441" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="F441" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G441" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H441" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I441" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J441" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K441" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N441" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A442" s="4">
+        <v>45558.906983692126</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D442" s="5">
+        <v>20241503</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="F442" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G442" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J442" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K442" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L442" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M442" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A443" s="10">
+        <v>45558.934914317128</v>
+      </c>
+      <c r="B443" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C443" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D443" s="11">
+        <v>20202319</v>
+      </c>
+      <c r="E443" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G443" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H443" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I443" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J443" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K443" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L443" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N443" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A444" s="4">
+        <v>45558.950869328706</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D444" s="5">
+        <v>20216526</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F444" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G444" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H444" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I444" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J444" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K444" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L444" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M444" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A445" s="10">
+        <v>45559.001724722228</v>
+      </c>
+      <c r="B445" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C445" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D445" s="11">
+        <v>20242515</v>
+      </c>
+      <c r="E445" s="11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F445" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G445" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H445" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I445" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J445" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K445" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L445" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M445" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A446" s="4">
+        <v>45559.164221458333</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D446" s="5">
+        <v>20231630</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F446" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G446" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H446" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I446" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J446" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K446" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L446" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M446" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A447" s="10">
+        <v>45559.502338773149</v>
+      </c>
+      <c r="B447" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C447" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D447" s="11">
+        <v>20241224</v>
+      </c>
+      <c r="E447" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F447" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G447" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H447" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I447" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J447" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K447" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L447" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N447" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A448" s="4">
+        <v>45559.591697731477</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D448" s="5">
+        <v>20241047</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F448" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G448" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H448" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I448" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J448" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K448" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L448" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M448" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A449" s="10">
+        <v>45559.5919946875</v>
+      </c>
+      <c r="B449" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C449" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D449" s="11">
+        <v>20182845</v>
+      </c>
+      <c r="E449" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F449" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G449" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H449" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I449" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J449" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K449" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L449" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M449" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A450" s="4">
+        <v>45559.626199004633</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D450" s="5">
+        <v>20246264</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F450" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G450" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I450" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J450" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L450" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M450" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A451" s="10">
+        <v>45559.729645347223</v>
+      </c>
+      <c r="B451" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C451" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D451" s="11">
+        <v>20235248</v>
+      </c>
+      <c r="E451" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F451" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G451" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H451" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I451" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J451" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K451" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L451" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M451" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A452" s="4">
+        <v>45559.755044942125</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D452" s="5">
+        <v>20192575</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F452" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G452" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H452" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I452" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J452" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K452" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L452" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M452" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A453" s="10">
+        <v>45559.801690601853</v>
+      </c>
+      <c r="B453" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C453" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D453" s="11">
+        <v>20227143</v>
+      </c>
+      <c r="E453" s="11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F453" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G453" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H453" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I453" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J453" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K453" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L453" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M453" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A454" s="4">
+        <v>45559.813776400464</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D454" s="5">
+        <v>20243368</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F454" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G454" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H454" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I454" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J454" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K454" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L454" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M454" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A455" s="10">
+        <v>45559.901769050921</v>
+      </c>
+      <c r="B455" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C455" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D455" s="11">
+        <v>20235180</v>
+      </c>
+      <c r="E455" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F455" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G455" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H455" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I455" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J455" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K455" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L455" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N455" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A456" s="4">
+        <v>45559.931952060186</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D456" s="5">
+        <v>20243606</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F456" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G456" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H456" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I456" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J456" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K456" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L456" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M456" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A457" s="10">
+        <v>45559.961054467596</v>
+      </c>
+      <c r="B457" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C457" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D457" s="11">
+        <v>20222830</v>
+      </c>
+      <c r="E457" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F457" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G457" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H457" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I457" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J457" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K457" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L457" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M457" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A458" s="4">
+        <v>45559.984756238424</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D458" s="5">
+        <v>20245156</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F458" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G458" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H458" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I458" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J458" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K458" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L458" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M458" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A459" s="10">
+        <v>45560.020110104168</v>
+      </c>
+      <c r="B459" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C459" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D459" s="11">
+        <v>20241038</v>
+      </c>
+      <c r="E459" s="11" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F459" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G459" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H459" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I459" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J459" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K459" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L459" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N459" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A460" s="4">
+        <v>45560.234261597223</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D460" s="5">
+        <v>20243423</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F460" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G460" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H460" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I460" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J460" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K460" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L460" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N460" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A461" s="10">
+        <v>45560.372455115736</v>
+      </c>
+      <c r="B461" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C461" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D461" s="11">
+        <v>20213235</v>
+      </c>
+      <c r="E461" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F461" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G461" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H461" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I461" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J461" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K461" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L461" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N461" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A462" s="4">
+        <v>45560.464169236111</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D462" s="5">
+        <v>20232554</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F462" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G462" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I462" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J462" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K462" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L462" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N462" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A463" s="10">
+        <v>45560.464841724533</v>
+      </c>
+      <c r="B463" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C463" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D463" s="11">
+        <v>20245201</v>
+      </c>
+      <c r="E463" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F463" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G463" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H463" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I463" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J463" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K463" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L463" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N463" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A464" s="4">
+        <v>45560.47023496528</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D464" s="5">
+        <v>20243814</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F464" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G464" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I464" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J464" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K464" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L464" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M464" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A465" s="10">
+        <v>45560.537234201387</v>
+      </c>
+      <c r="B465" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C465" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D465" s="11">
+        <v>20202431</v>
+      </c>
+      <c r="E465" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F465" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G465" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H465" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I465" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J465" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K465" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L465" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M465" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A466" s="4">
+        <v>45560.553756805559</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D466" s="5">
+        <v>20193813</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F466" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G466" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I466" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J466" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K466" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M466" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A467" s="10">
+        <v>45560.564337141201</v>
+      </c>
+      <c r="B467" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C467" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D467" s="11">
+        <v>20213644</v>
+      </c>
+      <c r="E467" s="11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F467" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G467" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H467" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I467" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J467" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K467" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L467" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N467" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A468" s="4">
+        <v>45560.570430370368</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D468" s="5">
+        <v>20245172</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F468" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G468" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I468" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J468" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K468" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M468" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A469" s="10">
+        <v>45560.571927962963</v>
+      </c>
+      <c r="B469" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C469" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D469" s="11">
+        <v>20195258</v>
+      </c>
+      <c r="E469" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F469" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G469" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H469" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I469" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J469" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K469" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L469" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N469" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A470" s="4">
+        <v>45560.580453969902</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D470" s="5">
+        <v>20246715</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F470" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G470" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I470" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J470" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K470" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L470" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N470" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A471" s="10">
+        <v>45560.594994050931</v>
+      </c>
+      <c r="B471" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C471" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D471" s="11">
+        <v>20192983</v>
+      </c>
+      <c r="E471" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G471" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H471" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I471" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J471" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K471" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L471" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M471" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A472" s="4">
+        <v>45560.636510787037</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D472" s="5">
+        <v>20193017</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G472" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I472" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J472" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K472" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L472" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M472" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A473" s="10">
+        <v>45560.650051562501</v>
+      </c>
+      <c r="B473" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C473" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D473" s="11">
+        <v>20243949</v>
+      </c>
+      <c r="E473" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F473" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G473" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H473" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I473" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J473" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K473" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L473" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N473" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A474" s="16">
+        <v>45560.652903310183</v>
+      </c>
+      <c r="B474" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C474" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D474" s="17">
+        <v>20246610</v>
+      </c>
+      <c r="E474" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F474" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G474" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H474" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I474" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J474" s="20">
+        <v>0.151</v>
+      </c>
+      <c r="K474" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L474" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M474" s="17" t="s">
         <v>31</v>
       </c>
     </row>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EC2442-3324-884B-948A-C133BCAEB6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70815AE3-9AC4-DB46-B454-95157D4C2C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="1082">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3225,6 +3225,48 @@
   </si>
   <si>
     <t>김민서</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>sky0219msh@naver.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>황현서</t>
   </si>
 </sst>
 </file>
@@ -3264,7 +3306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3412,10 +3454,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3424,13 +3466,28 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3441,7 +3498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3503,6 +3560,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3552,7 +3612,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N474">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N481">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3774,11 +3834,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I438" sqref="I438"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K486" sqref="K486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23192,44 +23252,331 @@
       </c>
     </row>
     <row r="474" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A474" s="16">
+      <c r="A474" s="4">
         <v>45560.652903310183</v>
       </c>
-      <c r="B474" s="17" t="s">
+      <c r="B474" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="C474" s="17" t="s">
+      <c r="C474" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D474" s="17">
+      <c r="D474" s="5">
         <v>20246610</v>
       </c>
-      <c r="E474" s="17" t="s">
+      <c r="E474" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="F474" s="18" t="s">
+      <c r="F474" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G474" s="19">
+      <c r="G474" s="7">
         <v>0.25</v>
       </c>
-      <c r="H474" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I474" s="17" t="s">
+      <c r="H474" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I474" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J474" s="20">
+      <c r="J474" s="8">
         <v>0.151</v>
       </c>
-      <c r="K474" s="17" t="s">
+      <c r="K474" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L474" s="17" t="s">
+      <c r="L474" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M474" s="17" t="s">
+      <c r="M474" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A475" s="10">
+        <v>45560.744538101848</v>
+      </c>
+      <c r="B475" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C475" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D475" s="11">
+        <v>20205162</v>
+      </c>
+      <c r="E475" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G475" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H475" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I475" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J475" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K475" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L475" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M475" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A476" s="4">
+        <v>45560.857647847224</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D476" s="5">
+        <v>20196638</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F476" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G476" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I476" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J476" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K476" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L476" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N476" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A477" s="10">
+        <v>45560.96355212963</v>
+      </c>
+      <c r="B477" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C477" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D477" s="11">
+        <v>20201108</v>
+      </c>
+      <c r="E477" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F477" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G477" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H477" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I477" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J477" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K477" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L477" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M477" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A478" s="4">
+        <v>45560.97450887732</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D478" s="5">
+        <v>20232728</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F478" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G478" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I478" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J478" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K478" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L478" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N478" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A479" s="10">
+        <v>45561.012550358791</v>
+      </c>
+      <c r="B479" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C479" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D479" s="11">
+        <v>20242342</v>
+      </c>
+      <c r="E479" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F479" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G479" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H479" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I479" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J479" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K479" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L479" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M479" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A480" s="4">
+        <v>45561.129486817124</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D480" s="5">
+        <v>20242824</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F480" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G480" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J480" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K480" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L480" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M480" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A481" s="16">
+        <v>45561.136048252316</v>
+      </c>
+      <c r="B481" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C481" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D481" s="17">
+        <v>20202761</v>
+      </c>
+      <c r="E481" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F481" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G481" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H481" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I481" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J481" s="20">
+        <v>0.151</v>
+      </c>
+      <c r="K481" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L481" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N481" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70815AE3-9AC4-DB46-B454-95157D4C2C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DBD5A5-5301-5E46-B9BF-86EC75D92216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="1200">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3267,6 +3267,360 @@
   </si>
   <si>
     <t>황현서</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>ohsolbi050521@gmail.com</t>
+  </si>
+  <si>
+    <t>오솔비</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>jym85362@nvaer.com</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>20217096@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>ksol902@naver.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스 학부</t>
+  </si>
+  <si>
+    <t>김은솔</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>tpgus3737@gmail.com</t>
+  </si>
+  <si>
+    <t>박세현</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>hiday_516@naver.com</t>
+  </si>
+  <si>
+    <t>양희지</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@naver.com</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>hhy062700@naver.com</t>
+  </si>
+  <si>
+    <t>황희영</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>mongsik5@naver.com</t>
+  </si>
+  <si>
+    <t>sugarain0613@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>sohn1118@naver.com</t>
+  </si>
+  <si>
+    <t>손정빈</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 융합과학수사학과</t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>체육학괴</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>msy123581@naver.com</t>
+  </si>
+  <si>
+    <t>문신영</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>inju7931@naver.com</t>
+  </si>
+  <si>
+    <t>문인주</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>ade041125@gmail.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>hyu05145@naver.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>thddnjs1030@gmail.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>asdigydus@gmail.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>u2fjfjrdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>duke102426@gmail.com</t>
+  </si>
+  <si>
+    <t>문진혁</t>
+  </si>
+  <si>
+    <t>a22234781@gmail.com</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>silpy2000@icloud.com</t>
+  </si>
+  <si>
+    <t>이윤건</t>
+  </si>
+  <si>
+    <t>johanjoon5734@gmail.com</t>
+  </si>
+  <si>
+    <t>조한준</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>soeunjeong0816@naver.com</t>
+  </si>
+  <si>
+    <t>정소은</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.com</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>jiah1622@naver.com</t>
+  </si>
+  <si>
+    <t>최지아</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3966,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N481">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N539">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3834,11 +4188,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K486" sqref="K486"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L550" sqref="L550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23539,44 +23893,2422 @@
       </c>
     </row>
     <row r="481" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A481" s="16">
+      <c r="A481" s="10">
         <v>45561.136048252316</v>
       </c>
-      <c r="B481" s="17" t="s">
+      <c r="B481" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="C481" s="17" t="s">
+      <c r="C481" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="D481" s="17">
+      <c r="D481" s="11">
         <v>20202761</v>
       </c>
-      <c r="E481" s="17" t="s">
+      <c r="E481" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="F481" s="18" t="s">
+      <c r="F481" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G481" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H481" s="17" t="s">
+      <c r="G481" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H481" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I481" s="17" t="s">
+      <c r="I481" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J481" s="20">
+      <c r="J481" s="14">
         <v>0.151</v>
       </c>
-      <c r="K481" s="17" t="s">
+      <c r="K481" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L481" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N481" s="21" t="s">
+      <c r="L481" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N481" s="15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A482" s="4">
+        <v>45561.406895196764</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D482" s="5">
+        <v>20227155</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F482" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G482" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I482" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J482" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K482" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L482" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M482" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A483" s="10">
+        <v>45561.459411944445</v>
+      </c>
+      <c r="B483" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C483" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D483" s="11">
+        <v>20246631</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F483" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G483" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H483" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I483" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J483" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K483" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L483" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N483" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A484" s="4">
+        <v>45561.460356134259</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D484" s="5">
+        <v>20242225</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F484" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G484" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H484" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I484" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J484" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K484" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L484" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N484" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A485" s="10">
+        <v>45561.481885844907</v>
+      </c>
+      <c r="B485" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C485" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D485" s="11">
+        <v>20243234</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F485" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G485" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H485" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I485" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J485" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K485" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L485" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M485" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A486" s="4">
+        <v>45561.588259594908</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D486" s="5">
+        <v>20217096</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F486" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G486" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J486" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K486" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L486" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N486" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A487" s="10">
+        <v>45561.638726840276</v>
+      </c>
+      <c r="B487" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C487" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="D487" s="11">
+        <v>20242925</v>
+      </c>
+      <c r="E487" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F487" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G487" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H487" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I487" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J487" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K487" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L487" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M487" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A488" s="4">
+        <v>45561.659537627318</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D488" s="5">
+        <v>20205198</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F488" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G488" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J488" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K488" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L488" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N488" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A489" s="10">
+        <v>45561.72377517361</v>
+      </c>
+      <c r="B489" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C489" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D489" s="11">
+        <v>20246768</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F489" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G489" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H489" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I489" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J489" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K489" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L489" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N489" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A490" s="4">
+        <v>45561.757469675926</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D490" s="5">
+        <v>20243215</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F490" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G490" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J490" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K490" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L490" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N490" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A491" s="10">
+        <v>45561.816322523147</v>
+      </c>
+      <c r="B491" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C491" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D491" s="11">
+        <v>20222530</v>
+      </c>
+      <c r="E491" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F491" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G491" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H491" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I491" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J491" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K491" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L491" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N491" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A492" s="4">
+        <v>45561.896972534727</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D492" s="5">
+        <v>20223226</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F492" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G492" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J492" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K492" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L492" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N492" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A493" s="10">
+        <v>45561.945741388889</v>
+      </c>
+      <c r="B493" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C493" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D493" s="11">
+        <v>20232311</v>
+      </c>
+      <c r="E493" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F493" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G493" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H493" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I493" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J493" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K493" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L493" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M493" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A494" s="4">
+        <v>45561.96116042824</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D494" s="5">
+        <v>20246776</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F494" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G494" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J494" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K494" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L494" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M494" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A495" s="10">
+        <v>45561.965811342598</v>
+      </c>
+      <c r="B495" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C495" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D495" s="11">
+        <v>20212609</v>
+      </c>
+      <c r="E495" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F495" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G495" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H495" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I495" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J495" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K495" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L495" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M495" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A496" s="4">
+        <v>45561.974067523144</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D496" s="5">
+        <v>20203523</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F496" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G496" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H496" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I496" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J496" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K496" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L496" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M496" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A497" s="10">
+        <v>45562.000912337964</v>
+      </c>
+      <c r="B497" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C497" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D497" s="11">
+        <v>20241518</v>
+      </c>
+      <c r="E497" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F497" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G497" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H497" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I497" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J497" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K497" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L497" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M497" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A498" s="4">
+        <v>45562.054776249999</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D498" s="5">
+        <v>20227039</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F498" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G498" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J498" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K498" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L498" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N498" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A499" s="10">
+        <v>45562.469030416665</v>
+      </c>
+      <c r="B499" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C499" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D499" s="11">
+        <v>20235164</v>
+      </c>
+      <c r="E499" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F499" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G499" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H499" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I499" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J499" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K499" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L499" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N499" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A500" s="4">
+        <v>45562.554046666672</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D500" s="5">
+        <v>20246940</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F500" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G500" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J500" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K500" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L500" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N500" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A501" s="10">
+        <v>45562.579788518517</v>
+      </c>
+      <c r="B501" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C501" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D501" s="11">
+        <v>20181090</v>
+      </c>
+      <c r="E501" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F501" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G501" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H501" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I501" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J501" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K501" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L501" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M501" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A502" s="4">
+        <v>45562.591960324076</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D502" s="5">
+        <v>20243971</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F502" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G502" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H502" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I502" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J502" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K502" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L502" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N502" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A503" s="10">
+        <v>45562.595598194443</v>
+      </c>
+      <c r="B503" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C503" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D503" s="11">
+        <v>20246238</v>
+      </c>
+      <c r="E503" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F503" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G503" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H503" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I503" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J503" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K503" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L503" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N503" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A504" s="4">
+        <v>45562.613888865744</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D504" s="5">
+        <v>20202809</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="F504" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G504" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H504" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I504" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J504" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K504" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L504" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N504" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A505" s="10">
+        <v>45562.617590196758</v>
+      </c>
+      <c r="B505" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C505" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D505" s="11">
+        <v>20245233</v>
+      </c>
+      <c r="E505" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F505" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G505" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H505" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I505" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J505" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K505" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L505" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M505" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A506" s="4">
+        <v>45562.628541851853</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D506" s="5">
+        <v>20223519</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F506" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G506" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H506" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I506" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J506" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K506" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L506" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M506" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A507" s="10">
+        <v>45562.635506354171</v>
+      </c>
+      <c r="B507" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C507" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D507" s="11">
+        <v>20246904</v>
+      </c>
+      <c r="E507" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F507" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G507" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H507" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I507" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J507" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K507" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L507" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M507" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A508" s="4">
+        <v>45562.672841354171</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D508" s="5">
+        <v>20207133</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F508" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G508" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H508" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J508" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K508" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L508" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M508" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A509" s="10">
+        <v>45562.685741365742</v>
+      </c>
+      <c r="B509" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C509" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D509" s="11">
+        <v>20242418</v>
+      </c>
+      <c r="E509" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F509" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G509" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H509" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I509" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J509" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K509" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L509" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M509" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A510" s="4">
+        <v>45562.687876620374</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D510" s="5">
+        <v>20243815</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F510" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G510" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H510" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I510" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J510" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K510" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L510" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M510" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A511" s="10">
+        <v>45562.688390277777</v>
+      </c>
+      <c r="B511" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C511" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D511" s="11">
+        <v>20241519</v>
+      </c>
+      <c r="E511" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F511" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G511" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H511" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I511" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J511" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K511" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L511" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M511" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A512" s="4">
+        <v>45562.705820567135</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D512" s="5">
+        <v>20241097</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F512" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G512" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H512" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I512" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J512" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K512" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L512" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M512" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A513" s="10">
+        <v>45562.711963518523</v>
+      </c>
+      <c r="B513" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C513" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="D513" s="11">
+        <v>20195160</v>
+      </c>
+      <c r="E513" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F513" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G513" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H513" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I513" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J513" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K513" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L513" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M513" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A514" s="4">
+        <v>45562.726110023148</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D514" s="5">
+        <v>20227091</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F514" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G514" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H514" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I514" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J514" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K514" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L514" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M514" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A515" s="10">
+        <v>45562.732089282406</v>
+      </c>
+      <c r="B515" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C515" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D515" s="11">
+        <v>20232548</v>
+      </c>
+      <c r="E515" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F515" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G515" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H515" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I515" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J515" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K515" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L515" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N515" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A516" s="4">
+        <v>45562.774717662032</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D516" s="5">
+        <v>20221007</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F516" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G516" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H516" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I516" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J516" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K516" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L516" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N516" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A517" s="10">
+        <v>45562.812213252313</v>
+      </c>
+      <c r="B517" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C517" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D517" s="11">
+        <v>20223224</v>
+      </c>
+      <c r="E517" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F517" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G517" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H517" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I517" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J517" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K517" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L517" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M517" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A518" s="4">
+        <v>45562.825528761576</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D518" s="5">
+        <v>20172433</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F518" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G518" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H518" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I518" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J518" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K518" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L518" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N518" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A519" s="10">
+        <v>45562.827771111115</v>
+      </c>
+      <c r="B519" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C519" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D519" s="11">
+        <v>20171035</v>
+      </c>
+      <c r="E519" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F519" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G519" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H519" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I519" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J519" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K519" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L519" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M519" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A520" s="4">
+        <v>45562.850451527775</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D520" s="5">
+        <v>20212827</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F520" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G520" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H520" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J520" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K520" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L520" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M520" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A521" s="10">
+        <v>45562.866053101854</v>
+      </c>
+      <c r="B521" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C521" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D521" s="11">
+        <v>20221717</v>
+      </c>
+      <c r="E521" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F521" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G521" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H521" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I521" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J521" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K521" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L521" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M521" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A522" s="4">
+        <v>45562.879413090282</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D522" s="5">
+        <v>20243912</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F522" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G522" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H522" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J522" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K522" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L522" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M522" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A523" s="10">
+        <v>45562.880388611113</v>
+      </c>
+      <c r="B523" s="11" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C523" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D523" s="11">
+        <v>20203918</v>
+      </c>
+      <c r="E523" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F523" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G523" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H523" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I523" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J523" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K523" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L523" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M523" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A524" s="4">
+        <v>45562.900275196764</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D524" s="5">
+        <v>20232502</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F524" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G524" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H524" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I524" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J524" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K524" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L524" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N524" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A525" s="10">
+        <v>45562.90721326389</v>
+      </c>
+      <c r="B525" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C525" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D525" s="11">
+        <v>20182862</v>
+      </c>
+      <c r="E525" s="11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F525" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G525" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H525" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I525" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J525" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K525" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L525" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N525" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A526" s="4">
+        <v>45562.927248368054</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D526" s="5">
+        <v>20201076</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F526" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G526" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H526" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I526" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J526" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K526" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L526" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N526" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A527" s="10">
+        <v>45562.936648842588</v>
+      </c>
+      <c r="B527" s="11" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C527" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="D527" s="11">
+        <v>20203321</v>
+      </c>
+      <c r="E527" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F527" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G527" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H527" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I527" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J527" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K527" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L527" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N527" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A528" s="4">
+        <v>45562.965169930554</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D528" s="5">
+        <v>20231720</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F528" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G528" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H528" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I528" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J528" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K528" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L528" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N528" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A529" s="10">
+        <v>45562.97061232639</v>
+      </c>
+      <c r="B529" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C529" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D529" s="11">
+        <v>20242230</v>
+      </c>
+      <c r="E529" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F529" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G529" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H529" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I529" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J529" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K529" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L529" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M529" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A530" s="4">
+        <v>45562.975670428241</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D530" s="5">
+        <v>20215115</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F530" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G530" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J530" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K530" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L530" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M530" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A531" s="10">
+        <v>45563.028892453702</v>
+      </c>
+      <c r="B531" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C531" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D531" s="11">
+        <v>20216628</v>
+      </c>
+      <c r="E531" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F531" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G531" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H531" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I531" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J531" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K531" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L531" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N531" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A532" s="4">
+        <v>45563.04054913194</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D532" s="5">
+        <v>20243359</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F532" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G532" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H532" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J532" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K532" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L532" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N532" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A533" s="10">
+        <v>45563.045960497686</v>
+      </c>
+      <c r="B533" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C533" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D533" s="11">
+        <v>20227073</v>
+      </c>
+      <c r="E533" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F533" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G533" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H533" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I533" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J533" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K533" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L533" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M533" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A534" s="4">
+        <v>45563.104973969908</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D534" s="5">
+        <v>20243648</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F534" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G534" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H534" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I534" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J534" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K534" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L534" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N534" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A535" s="10">
+        <v>45563.117463460643</v>
+      </c>
+      <c r="B535" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C535" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D535" s="11">
+        <v>20217180</v>
+      </c>
+      <c r="E535" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F535" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G535" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H535" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I535" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J535" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K535" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L535" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M535" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A536" s="4">
+        <v>45563.120435509263</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D536" s="5">
+        <v>20241054</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F536" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G536" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H536" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I536" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J536" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K536" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L536" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M536" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A537" s="10">
+        <v>45563.136947430554</v>
+      </c>
+      <c r="B537" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C537" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D537" s="11">
+        <v>20243241</v>
+      </c>
+      <c r="E537" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F537" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G537" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H537" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I537" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J537" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K537" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L537" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N537" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A538" s="4">
+        <v>45563.209518217591</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D538" s="5">
+        <v>20182346</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F538" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G538" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H538" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I538" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J538" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K538" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L538" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M538" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A539" s="16">
+        <v>45563.214059548613</v>
+      </c>
+      <c r="B539" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C539" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D539" s="17">
+        <v>20245271</v>
+      </c>
+      <c r="E539" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F539" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G539" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H539" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I539" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J539" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K539" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L539" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N539" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58DBD5A5-5301-5E46-B9BF-86EC75D92216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD06C795-F53C-684A-BB81-32A56F1C7A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5116" uniqueCount="1260">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3621,6 +3621,186 @@
   </si>
   <si>
     <t>최지아</t>
+  </si>
+  <si>
+    <t>nurasun050718@naver.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>pintang@naver.com</t>
+  </si>
+  <si>
+    <t>당빈</t>
+  </si>
+  <si>
+    <t>hijgc8282@naver.com</t>
+  </si>
+  <si>
+    <t>윤장근</t>
+  </si>
+  <si>
+    <t>crown7308@naver.com</t>
+  </si>
+  <si>
+    <t>박재환</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>kimeunji0512@naver.com</t>
+  </si>
+  <si>
+    <t>김은지</t>
+  </si>
+  <si>
+    <t>benjamin27@naver.com</t>
+  </si>
+  <si>
+    <t>최재혁</t>
+  </si>
+  <si>
+    <t>choikng2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>youu0729@naver.com</t>
+  </si>
+  <si>
+    <t>유이현</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>min010417@gmail.com</t>
+  </si>
+  <si>
+    <t>강채민</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naevr.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>lapter1122@naver.com</t>
+  </si>
+  <si>
+    <t>진유진</t>
+  </si>
+  <si>
+    <t>aj7082331@gmail.com</t>
+  </si>
+  <si>
+    <t>조아나</t>
+  </si>
+  <si>
+    <t>dlakrp731@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘텐츠it </t>
+  </si>
+  <si>
+    <t>이준수</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>jiurim0316@naver.com</t>
+  </si>
+  <si>
+    <t>지우림</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>iiiiii3314@naver.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부 ai로봇융합전공</t>
+  </si>
+  <si>
+    <t>송민재</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
   </si>
 </sst>
 </file>
@@ -3660,7 +3840,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3808,10 +3988,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3820,28 +4000,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3852,7 +4017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3914,9 +4079,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3966,7 +4128,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N539">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N568">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4188,11 +4350,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N539"/>
+  <dimension ref="A1:N568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L550" sqref="L550"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I573" sqref="I573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26271,44 +26433,1233 @@
       </c>
     </row>
     <row r="539" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A539" s="16">
+      <c r="A539" s="10">
         <v>45563.214059548613</v>
       </c>
-      <c r="B539" s="17" t="s">
+      <c r="B539" s="11" t="s">
         <v>1198</v>
       </c>
-      <c r="C539" s="17" t="s">
+      <c r="C539" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D539" s="17">
+      <c r="D539" s="11">
         <v>20245271</v>
       </c>
-      <c r="E539" s="17" t="s">
+      <c r="E539" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="F539" s="18" t="s">
+      <c r="F539" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G539" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H539" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I539" s="17" t="s">
+      <c r="G539" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H539" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I539" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J539" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K539" s="17" t="s">
+      <c r="J539" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K539" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L539" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N539" s="21" t="s">
+      <c r="L539" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N539" s="15" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A540" s="4">
+        <v>45563.419726655091</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D540" s="5">
+        <v>20243636</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F540" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G540" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H540" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I540" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J540" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K540" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L540" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M540" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A541" s="10">
+        <v>45563.421651655095</v>
+      </c>
+      <c r="B541" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C541" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="D541" s="11">
+        <v>20223325</v>
+      </c>
+      <c r="E541" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F541" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G541" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H541" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I541" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J541" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K541" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L541" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N541" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A542" s="4">
+        <v>45563.42414609954</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D542" s="5">
+        <v>20243934</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F542" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G542" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H542" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I542" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J542" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K542" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L542" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M542" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A543" s="10">
+        <v>45563.426146215279</v>
+      </c>
+      <c r="B543" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C543" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D543" s="11">
+        <v>20191514</v>
+      </c>
+      <c r="E543" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F543" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G543" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H543" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I543" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J543" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K543" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L543" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N543" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A544" s="4">
+        <v>45563.496968101856</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D544" s="5">
+        <v>20192560</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F544" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G544" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H544" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I544" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J544" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K544" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L544" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M544" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A545" s="10">
+        <v>45563.520386157412</v>
+      </c>
+      <c r="B545" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C545" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D545" s="11">
+        <v>20205173</v>
+      </c>
+      <c r="E545" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F545" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G545" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H545" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I545" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J545" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K545" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L545" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N545" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A546" s="4">
+        <v>45563.555429085653</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D546" s="5">
+        <v>20241088</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F546" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G546" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H546" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I546" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J546" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K546" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L546" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N546" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A547" s="10">
+        <v>45563.571243067126</v>
+      </c>
+      <c r="B547" s="11" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C547" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D547" s="11">
+        <v>20243910</v>
+      </c>
+      <c r="E547" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F547" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G547" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H547" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I547" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J547" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K547" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L547" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N547" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A548" s="4">
+        <v>45563.620498020835</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D548" s="5">
+        <v>20212583</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F548" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G548" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H548" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I548" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J548" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K548" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L548" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M548" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A549" s="10">
+        <v>45563.623187777775</v>
+      </c>
+      <c r="B549" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C549" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D549" s="11">
+        <v>2022238</v>
+      </c>
+      <c r="E549" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F549" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G549" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H549" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I549" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J549" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K549" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L549" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M549" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A550" s="4">
+        <v>45563.64406337963</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D550" s="5">
+        <v>20242335</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F550" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G550" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H550" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I550" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J550" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K550" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L550" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M550" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A551" s="10">
+        <v>45563.688111377312</v>
+      </c>
+      <c r="B551" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C551" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D551" s="11">
+        <v>20242109</v>
+      </c>
+      <c r="E551" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F551" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G551" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H551" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I551" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J551" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K551" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L551" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N551" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A552" s="4">
+        <v>45563.701661238425</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D552" s="5">
+        <v>20242988</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F552" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G552" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H552" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I552" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J552" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K552" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L552" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M552" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A553" s="10">
+        <v>45563.710229664357</v>
+      </c>
+      <c r="B553" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C553" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D553" s="11">
+        <v>20203702</v>
+      </c>
+      <c r="E553" s="11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F553" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G553" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H553" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I553" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J553" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K553" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L553" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N553" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A554" s="4">
+        <v>45563.725739421294</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D554" s="5">
+        <v>20203807</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F554" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G554" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H554" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I554" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J554" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K554" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L554" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N554" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A555" s="10">
+        <v>45563.754696215277</v>
+      </c>
+      <c r="B555" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C555" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D555" s="11">
+        <v>20202719</v>
+      </c>
+      <c r="E555" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F555" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G555" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H555" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I555" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J555" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K555" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L555" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M555" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A556" s="4">
+        <v>45563.765056689816</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D556" s="5">
+        <v>20232635</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F556" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G556" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H556" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I556" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J556" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K556" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L556" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M556" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A557" s="10">
+        <v>45563.805061319443</v>
+      </c>
+      <c r="B557" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C557" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D557" s="11">
+        <v>20233849</v>
+      </c>
+      <c r="E557" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F557" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G557" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H557" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I557" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J557" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K557" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L557" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N557" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A558" s="4">
+        <v>45563.819157754631</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D558" s="5">
+        <v>20195225</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F558" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G558" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H558" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J558" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K558" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L558" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M558" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A559" s="10">
+        <v>45563.819331053237</v>
+      </c>
+      <c r="B559" s="11" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C559" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D559" s="11">
+        <v>20212927</v>
+      </c>
+      <c r="E559" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F559" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G559" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H559" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I559" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J559" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K559" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L559" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M559" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A560" s="4">
+        <v>45563.8205547338</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D560" s="5">
+        <v>20242112</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F560" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G560" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H560" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I560" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J560" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K560" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L560" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M560" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A561" s="10">
+        <v>45563.855091284728</v>
+      </c>
+      <c r="B561" s="11" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C561" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D561" s="11">
+        <v>20233954</v>
+      </c>
+      <c r="E561" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F561" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G561" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H561" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I561" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J561" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K561" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L561" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M561" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A562" s="4">
+        <v>45563.879675254633</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D562" s="5">
+        <v>20243038</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F562" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G562" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H562" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J562" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K562" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L562" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M562" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A563" s="10">
+        <v>45563.883105300927</v>
+      </c>
+      <c r="B563" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C563" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D563" s="11">
+        <v>20202849</v>
+      </c>
+      <c r="E563" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F563" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G563" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H563" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I563" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J563" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K563" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L563" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N563" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A564" s="4">
+        <v>45563.887027557867</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D564" s="5">
+        <v>20241082</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F564" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G564" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H564" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I564" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J564" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K564" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L564" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M564" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A565" s="10">
+        <v>45563.887905671298</v>
+      </c>
+      <c r="B565" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C565" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D565" s="11">
+        <v>20242986</v>
+      </c>
+      <c r="E565" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F565" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G565" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H565" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I565" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J565" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K565" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L565" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N565" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A566" s="4">
+        <v>45563.90808173611</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D566" s="5">
+        <v>20236736</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F566" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G566" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H566" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I566" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J566" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K566" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L566" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N566" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A567" s="10">
+        <v>45563.910679074077</v>
+      </c>
+      <c r="B567" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D567" s="11">
+        <v>20233509</v>
+      </c>
+      <c r="E567" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F567" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G567" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H567" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I567" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J567" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K567" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L567" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N567" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A568" s="16">
+        <v>45563.917732951391</v>
+      </c>
+      <c r="B568" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C568" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D568" s="17">
+        <v>20242532</v>
+      </c>
+      <c r="E568" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F568" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G568" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H568" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I568" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J568" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K568" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L568" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M568" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD06C795-F53C-684A-BB81-32A56F1C7A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{542B24B0-518B-974D-BDCC-92593B12AE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5116" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="1297">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3801,6 +3801,117 @@
   </si>
   <si>
     <t>신은채</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>h20201721@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>유지원</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>cardinal0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김수환</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>jisung050407@naver.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>hwo0933@gmail.com</t>
+  </si>
+  <si>
+    <t>양현우</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>김현준</t>
   </si>
 </sst>
 </file>
@@ -3840,7 +3951,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4013,11 +4124,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4079,6 +4205,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4128,7 +4257,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N568">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N586">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4350,11 +4479,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N568"/>
+  <dimension ref="A1:N586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I573" sqref="I573"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M592" sqref="M592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27622,44 +27751,782 @@
       </c>
     </row>
     <row r="568" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A568" s="16">
+      <c r="A568" s="4">
         <v>45563.917732951391</v>
       </c>
-      <c r="B568" s="17" t="s">
+      <c r="B568" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="C568" s="17" t="s">
+      <c r="C568" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D568" s="17">
+      <c r="D568" s="5">
         <v>20242532</v>
       </c>
-      <c r="E568" s="17" t="s">
+      <c r="E568" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="F568" s="18" t="s">
+      <c r="F568" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G568" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H568" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I568" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J568" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K568" s="17" t="s">
+      <c r="G568" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H568" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I568" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J568" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K568" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L568" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M568" s="17" t="s">
+      <c r="L568" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M568" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A569" s="10">
+        <v>45563.943255069447</v>
+      </c>
+      <c r="B569" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C569" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D569" s="11">
+        <v>20242575</v>
+      </c>
+      <c r="E569" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F569" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G569" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H569" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I569" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J569" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K569" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L569" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M569" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A570" s="4">
+        <v>45563.955046400464</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D570" s="5">
+        <v>20242423</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F570" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G570" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H570" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I570" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J570" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K570" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L570" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N570" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A571" s="10">
+        <v>45563.966118761571</v>
+      </c>
+      <c r="B571" s="11" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="D571" s="11">
+        <v>20242982</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F571" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G571" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H571" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I571" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J571" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K571" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L571" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N571" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A572" s="4">
+        <v>45563.966318113424</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D572" s="5">
+        <v>20217087</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F572" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G572" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H572" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I572" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J572" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K572" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L572" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M572" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A573" s="10">
+        <v>45563.973299710648</v>
+      </c>
+      <c r="B573" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C573" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D573" s="11">
+        <v>20203251</v>
+      </c>
+      <c r="E573" s="11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F573" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G573" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H573" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I573" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J573" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K573" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L573" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M573" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A574" s="4">
+        <v>45563.980686435185</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D574" s="5">
+        <v>20203322</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F574" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G574" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H574" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J574" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K574" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L574" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A575" s="10">
+        <v>45563.98523111111</v>
+      </c>
+      <c r="B575" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C575" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D575" s="11">
+        <v>20201721</v>
+      </c>
+      <c r="E575" s="11" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F575" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G575" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H575" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I575" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J575" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K575" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L575" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M575" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A576" s="4">
+        <v>45564.020717453706</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D576" s="5">
+        <v>20246741</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F576" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G576" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H576" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J576" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K576" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L576" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N576" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A577" s="10">
+        <v>45564.023038842592</v>
+      </c>
+      <c r="B577" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C577" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D577" s="11">
+        <v>20242511</v>
+      </c>
+      <c r="E577" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F577" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G577" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H577" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I577" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J577" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K577" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L577" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N577" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A578" s="4">
+        <v>45564.062243449072</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D578" s="5">
+        <v>20246930</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F578" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G578" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J578" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K578" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L578" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A579" s="10">
+        <v>45564.063095879625</v>
+      </c>
+      <c r="B579" s="11" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C579" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D579" s="11">
+        <v>20202637</v>
+      </c>
+      <c r="E579" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F579" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G579" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H579" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I579" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J579" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K579" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L579" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N579" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A580" s="4">
+        <v>45564.069610347222</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D580" s="5">
+        <v>20242212</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F580" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G580" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I580" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J580" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K580" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L580" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M580" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A581" s="10">
+        <v>45564.076742256948</v>
+      </c>
+      <c r="B581" s="11" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C581" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D581" s="11">
+        <v>20182519</v>
+      </c>
+      <c r="E581" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F581" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G581" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H581" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I581" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J581" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K581" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L581" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M581" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A582" s="4">
+        <v>45564.090478182872</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D582" s="5">
+        <v>20222361</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G582" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J582" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K582" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L582" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N582" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A583" s="10">
+        <v>45564.095884305556</v>
+      </c>
+      <c r="B583" s="11" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C583" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D583" s="11">
+        <v>20246301</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F583" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G583" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H583" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I583" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J583" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K583" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L583" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N583" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A584" s="4">
+        <v>45564.110414178242</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D584" s="5">
+        <v>20191106</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F584" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G584" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H584" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J584" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K584" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L584" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N584" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A585" s="10">
+        <v>45564.114228888888</v>
+      </c>
+      <c r="B585" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C585" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D585" s="11">
+        <v>20236627</v>
+      </c>
+      <c r="E585" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F585" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G585" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H585" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I585" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J585" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K585" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L585" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M585" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A586" s="16">
+        <v>45564.265851284727</v>
+      </c>
+      <c r="B586" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C586" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D586" s="17">
+        <v>20182850</v>
+      </c>
+      <c r="E586" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F586" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G586" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H586" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I586" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J586" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K586" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L586" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N586" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240916_tmp.xlsx
+++ b/R/data/quiz240916_tmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542B24B0-518B-974D-BDCC-92593B12AE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87858D54-AF7D-8E45-AF64-C984627EC7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6566" uniqueCount="1581">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3912,6 +3912,858 @@
   </si>
   <si>
     <t>김현준</t>
+  </si>
+  <si>
+    <t>bmj4033@gmail.com</t>
+  </si>
+  <si>
+    <t>백민제</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>강은비</t>
+  </si>
+  <si>
+    <t>namjihk@gmail.com</t>
+  </si>
+  <si>
+    <t>남지혁</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>황소현</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>wpghks1145@gmail.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.dom</t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>hyunwoo4223021@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보학괴</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>kty030122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>qpal0737k@gmail.com</t>
+  </si>
+  <si>
+    <t>유현이</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>kgh1321gaga@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>lsarang1311@gmail.com</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>jinsol.oh84@gmail.com</t>
+  </si>
+  <si>
+    <t>오진솔</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>sowon051125@naver.com</t>
+  </si>
+  <si>
+    <t>이소원</t>
+  </si>
+  <si>
+    <t>joo6806898@naver.com</t>
+  </si>
+  <si>
+    <t>김승주</t>
+  </si>
+  <si>
+    <t>gmldbs0812@gmail.com</t>
+  </si>
+  <si>
+    <t>강희윤</t>
+  </si>
+  <si>
+    <t>gordon0625@naver.com</t>
+  </si>
+  <si>
+    <t>김승재</t>
+  </si>
+  <si>
+    <t>coreykang3@naver.com</t>
+  </si>
+  <si>
+    <t>반도체공학</t>
+  </si>
+  <si>
+    <t>강동훈</t>
+  </si>
+  <si>
+    <t>wjswlals789@naver.com</t>
+  </si>
+  <si>
+    <t>전지민</t>
+  </si>
+  <si>
+    <t>seokwony123@gmail.com</t>
+  </si>
+  <si>
+    <t>양석원</t>
+  </si>
+  <si>
+    <t>mire030503@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 학과</t>
+  </si>
+  <si>
+    <t>김원형</t>
+  </si>
+  <si>
+    <t>lyjo0823@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>이연주</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>aldidhd1112@naver.com</t>
+  </si>
+  <si>
+    <t>권효서</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>jb9517asd@naver.com</t>
+  </si>
+  <si>
+    <t>곽우주</t>
+  </si>
+  <si>
+    <t>simple4940@gmail.com</t>
+  </si>
+  <si>
+    <t>조민</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>kya01095509223@gmail.com</t>
+  </si>
+  <si>
+    <t>김윤아</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>ghskfen1215@naver.com</t>
+  </si>
+  <si>
+    <t>기정윤</t>
+  </si>
+  <si>
+    <t>bottom0406@gmail.com</t>
+  </si>
+  <si>
+    <t>박문형</t>
+  </si>
+  <si>
+    <t>marcy0628@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>hanca0607@naver.com</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>jjww74@naver.com</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>yoonsun91124@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤선</t>
+  </si>
+  <si>
+    <t>you33013301@gmail.com</t>
+  </si>
+  <si>
+    <t>권유정</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+  </si>
+  <si>
+    <t>kmjung0948@gmail.com</t>
+  </si>
+  <si>
+    <t>진현수</t>
+  </si>
+  <si>
+    <t>opix97@naver.com</t>
+  </si>
+  <si>
+    <t>조성훈</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>cth041103@naver.com</t>
+  </si>
+  <si>
+    <t>041103</t>
+  </si>
+  <si>
+    <t>최태희</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>jjhjo2070@gmail.com</t>
+  </si>
+  <si>
+    <t>조정훈</t>
+  </si>
+  <si>
+    <t>jud050207@gmail.com</t>
+  </si>
+  <si>
+    <t>정의돈</t>
+  </si>
+  <si>
+    <t>ahs042400@naver.com</t>
+  </si>
+  <si>
+    <t>안현성</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>dojunc1@gmail.com</t>
+  </si>
+  <si>
+    <t>차도준</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>김재희</t>
+  </si>
+  <si>
+    <t>featherkim@naver.com</t>
+  </si>
+  <si>
+    <t>김향수</t>
+  </si>
+  <si>
+    <t>un5343@gmail.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>p060627@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>박찬혁</t>
+  </si>
+  <si>
+    <t>yuntwo22@naver.com</t>
+  </si>
+  <si>
+    <t>윤세진</t>
+  </si>
+  <si>
+    <t>hshhsh0774@gmail.com</t>
+  </si>
+  <si>
+    <t>한승호</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>seoeun2003@naver.com</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>ljw76825119@gmail.com</t>
+  </si>
+  <si>
+    <t>oh4559@gmail.com</t>
+  </si>
+  <si>
+    <t>권오현</t>
+  </si>
+  <si>
+    <t>ziva0726@naver.com</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>kusahana8047@gmail.com</t>
+  </si>
+  <si>
+    <t>유현우</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>ueusudjsjsksksk@gmail.com</t>
+  </si>
+  <si>
+    <t>강동현</t>
+  </si>
+  <si>
+    <t>sht05137@gmail.com</t>
+  </si>
+  <si>
+    <t>류정석</t>
+  </si>
+  <si>
+    <t>ehdus1113kim@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>yeonh990@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학전공</t>
+  </si>
+  <si>
+    <t>박현아</t>
+  </si>
+  <si>
+    <t>wndus6604@naver.com</t>
+  </si>
+  <si>
+    <t>남주연</t>
+  </si>
+  <si>
+    <t>ahfahf12@gmail.com</t>
+  </si>
+  <si>
+    <t>김원준</t>
+  </si>
+  <si>
+    <t>junyeong@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>lindenjw12@gmail.com</t>
+  </si>
+  <si>
+    <t>이지우</t>
+  </si>
+  <si>
+    <t>slionrain0819@naver.com</t>
+  </si>
+  <si>
+    <t>정의환</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>kte1785@naver.com</t>
+  </si>
+  <si>
+    <t>yerimyerim11@naver.com</t>
+  </si>
+  <si>
+    <t>mnnnmm22@naver.com</t>
+  </si>
+  <si>
+    <t>고현아</t>
+  </si>
+  <si>
+    <t>cho011104@naver.com</t>
+  </si>
+  <si>
+    <t>조윤재</t>
+  </si>
+  <si>
+    <t>yeona0926@gmail.com</t>
+  </si>
+  <si>
+    <t>강연아</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>kuse9713@hanmail.net</t>
+  </si>
+  <si>
+    <t>ereere05@naver.com</t>
+  </si>
+  <si>
+    <t>황은상</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>xhddlfqnxkr@naver.com</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>nari040812@naver.com</t>
+  </si>
+  <si>
+    <t>이나리</t>
+  </si>
+  <si>
+    <t>eunsoljj12@gmail.com</t>
+  </si>
+  <si>
+    <t>권은솔</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>hyeonyonga@naver.com</t>
+  </si>
+  <si>
+    <t>안현용</t>
+  </si>
+  <si>
+    <t>dddbs1ob@gmail.com</t>
+  </si>
+  <si>
+    <t>윤솔민</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>in3019@gmail.com</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>eoqkr4821@naver.com</t>
+  </si>
+  <si>
+    <t>syuniw26@gmail.com</t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>soyeong6832@gmail.com</t>
+  </si>
+  <si>
+    <t>지소영</t>
+  </si>
+  <si>
+    <t>tkddnt0608@gmail.com</t>
+  </si>
+  <si>
+    <t>유상욱</t>
+  </si>
+  <si>
+    <t>seohyemin2003@naver.com</t>
+  </si>
+  <si>
+    <t>서혜민</t>
+  </si>
+  <si>
+    <t>dkddkd8480@gmail.com</t>
+  </si>
+  <si>
+    <t>유용재</t>
+  </si>
+  <si>
+    <t>tommy580134@naver.com</t>
+  </si>
+  <si>
+    <t>예준원</t>
+  </si>
+  <si>
+    <t>hyeonjin09760@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>ghksltjrl@naver.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
+  </si>
+  <si>
+    <t>xx0911ram1@gmail.com</t>
+  </si>
+  <si>
+    <t>정하람</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>경영대학(금융재무학과)</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>chaerin3940@naver.com</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>kimtaehee34@naver.com</t>
+  </si>
+  <si>
+    <t>roytoy151827@gmail.com</t>
+  </si>
+  <si>
+    <t>김용한</t>
+  </si>
+  <si>
+    <t>shimyuna14@gmail.com</t>
+  </si>
+  <si>
+    <t>심유나</t>
+  </si>
+  <si>
+    <t>h20216510@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>AI기술경영융합전공</t>
+  </si>
+  <si>
+    <t>김지인</t>
+  </si>
+  <si>
+    <t>bsgtopriner0@gmail.com</t>
+  </si>
+  <si>
+    <t>최윤혁</t>
+  </si>
+  <si>
+    <t>p1aymaker9926@gmail.com</t>
+  </si>
+  <si>
+    <t>김대환</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>xluww263@gmail.com</t>
+  </si>
+  <si>
+    <t>주시은</t>
+  </si>
+  <si>
+    <t>h20202519@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>남현아</t>
+  </si>
+  <si>
+    <t>huigyeongjin33@gmail.com</t>
+  </si>
+  <si>
+    <t>진희경</t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
   </si>
 </sst>
 </file>
@@ -3951,7 +4803,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4099,10 +4951,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4111,28 +4963,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4143,7 +4980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4205,9 +5042,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4257,7 +5091,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N586">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N729">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4479,11 +5313,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N586"/>
+  <dimension ref="A1:N729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M592" sqref="M592"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I742" sqref="I742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28489,44 +29323,5907 @@
       </c>
     </row>
     <row r="586" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A586" s="16">
+      <c r="A586" s="4">
         <v>45564.265851284727</v>
       </c>
-      <c r="B586" s="17" t="s">
+      <c r="B586" s="5" t="s">
         <v>1295</v>
       </c>
-      <c r="C586" s="17" t="s">
+      <c r="C586" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D586" s="17">
+      <c r="D586" s="5">
         <v>20182850</v>
       </c>
-      <c r="E586" s="17" t="s">
+      <c r="E586" s="5" t="s">
         <v>1296</v>
       </c>
-      <c r="F586" s="18" t="s">
+      <c r="F586" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G586" s="19">
+      <c r="G586" s="7">
         <v>0.15</v>
       </c>
-      <c r="H586" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I586" s="17" t="s">
+      <c r="H586" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I586" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J586" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K586" s="17" t="s">
+      <c r="J586" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K586" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L586" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N586" s="21" t="s">
+      <c r="L586" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N586" s="9" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A587" s="10">
+        <v>45564.310603101854</v>
+      </c>
+      <c r="B587" s="11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C587" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D587" s="11">
+        <v>20231712</v>
+      </c>
+      <c r="E587" s="11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F587" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G587" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H587" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I587" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J587" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K587" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L587" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M587" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A588" s="4">
+        <v>45564.362784594909</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D588" s="5">
+        <v>20191623</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F588" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G588" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H588" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I588" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J588" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K588" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L588" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M588" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A589" s="10">
+        <v>45564.36850232639</v>
+      </c>
+      <c r="B589" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C589" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D589" s="11">
+        <v>20182308</v>
+      </c>
+      <c r="E589" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F589" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G589" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H589" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I589" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J589" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K589" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L589" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N589" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A590" s="4">
+        <v>45564.383484259262</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D590" s="5">
+        <v>20242314</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F590" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G590" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H590" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I590" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J590" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K590" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L590" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N590" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A591" s="10">
+        <v>45564.427773379633</v>
+      </c>
+      <c r="B591" s="11" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C591" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D591" s="11">
+        <v>20201002</v>
+      </c>
+      <c r="E591" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F591" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G591" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H591" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I591" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J591" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K591" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L591" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M591" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A592" s="4">
+        <v>45564.431153252313</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D592" s="5">
+        <v>20242944</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F592" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G592" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H592" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I592" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J592" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K592" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L592" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M592" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A593" s="10">
+        <v>45564.434258217589</v>
+      </c>
+      <c r="B593" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C593" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D593" s="11">
+        <v>20226638</v>
+      </c>
+      <c r="E593" s="11" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F593" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G593" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H593" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I593" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J593" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K593" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L593" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N593" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A594" s="4">
+        <v>45564.444305474535</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D594" s="5">
+        <v>20243063</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F594" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G594" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H594" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I594" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J594" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K594" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L594" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M594" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A595" s="10">
+        <v>45564.445319143517</v>
+      </c>
+      <c r="B595" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C595" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D595" s="11">
+        <v>20232953</v>
+      </c>
+      <c r="E595" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F595" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G595" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H595" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I595" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J595" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K595" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L595" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M595" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A596" s="4">
+        <v>45564.451887175921</v>
+      </c>
+      <c r="B596" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D596" s="5">
+        <v>20201046</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F596" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G596" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H596" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I596" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J596" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K596" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L596" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M596" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A597" s="10">
+        <v>45564.456321921301</v>
+      </c>
+      <c r="B597" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C597" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D597" s="11">
+        <v>20213543</v>
+      </c>
+      <c r="E597" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F597" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G597" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H597" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I597" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J597" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K597" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L597" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N597" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A598" s="4">
+        <v>45564.461200891208</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D598" s="5">
+        <v>20243964</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F598" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G598" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H598" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I598" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J598" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K598" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L598" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N598" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A599" s="10">
+        <v>45564.465126168987</v>
+      </c>
+      <c r="B599" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C599" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D599" s="11">
+        <v>20242613</v>
+      </c>
+      <c r="E599" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F599" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G599" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H599" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I599" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J599" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K599" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L599" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N599" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A600" s="4">
+        <v>45564.468954884258</v>
+      </c>
+      <c r="B600" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D600" s="5">
+        <v>20214113</v>
+      </c>
+      <c r="E600" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F600" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G600" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H600" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I600" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J600" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K600" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L600" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M600" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A601" s="10">
+        <v>45564.49360509259</v>
+      </c>
+      <c r="B601" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C601" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="D601" s="11">
+        <v>20212846</v>
+      </c>
+      <c r="E601" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F601" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G601" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H601" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I601" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J601" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K601" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L601" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N601" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A602" s="4">
+        <v>45564.499639224538</v>
+      </c>
+      <c r="B602" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D602" s="5">
+        <v>20232734</v>
+      </c>
+      <c r="E602" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F602" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G602" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H602" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I602" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J602" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K602" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L602" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M602" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A603" s="10">
+        <v>45564.502990138892</v>
+      </c>
+      <c r="B603" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C603" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D603" s="11">
+        <v>20246262</v>
+      </c>
+      <c r="E603" s="11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F603" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G603" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H603" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I603" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J603" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K603" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L603" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M603" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A604" s="4">
+        <v>45564.509635231487</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D604" s="5">
+        <v>20235112</v>
+      </c>
+      <c r="E604" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F604" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G604" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H604" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J604" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K604" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L604" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N604" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A605" s="10">
+        <v>45564.52010238426</v>
+      </c>
+      <c r="B605" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C605" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D605" s="11">
+        <v>20242914</v>
+      </c>
+      <c r="E605" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="F605" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G605" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H605" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I605" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J605" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K605" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L605" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M605" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="606" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A606" s="4">
+        <v>45564.563428067129</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D606" s="5">
+        <v>20242998</v>
+      </c>
+      <c r="E606" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F606" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G606" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H606" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I606" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J606" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K606" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L606" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M606" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A607" s="10">
+        <v>45564.56441136574</v>
+      </c>
+      <c r="B607" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C607" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D607" s="11">
+        <v>20245246</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F607" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G607" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H607" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I607" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J607" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K607" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L607" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M607" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A608" s="4">
+        <v>45564.569131793978</v>
+      </c>
+      <c r="B608" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D608" s="5">
+        <v>20242987</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F608" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G608" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H608" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I608" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J608" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K608" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L608" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N608" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A609" s="10">
+        <v>45564.57122510417</v>
+      </c>
+      <c r="B609" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C609" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D609" s="11">
+        <v>20233605</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F609" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G609" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H609" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I609" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J609" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K609" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L609" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N609" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A610" s="4">
+        <v>45564.571335625005</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D610" s="5">
+        <v>20211523</v>
+      </c>
+      <c r="E610" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F610" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G610" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H610" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I610" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J610" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K610" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L610" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M610" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A611" s="10">
+        <v>45564.586909166668</v>
+      </c>
+      <c r="B611" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C611" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D611" s="11">
+        <v>20243238</v>
+      </c>
+      <c r="E611" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F611" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G611" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H611" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I611" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J611" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K611" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L611" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M611" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A612" s="4">
+        <v>45564.587847858798</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D612" s="5">
+        <v>20223605</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F612" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G612" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H612" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I612" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J612" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K612" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L612" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N612" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A613" s="10">
+        <v>45564.596983101852</v>
+      </c>
+      <c r="B613" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C613" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D613" s="11">
+        <v>20223801</v>
+      </c>
+      <c r="E613" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F613" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G613" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H613" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I613" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J613" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K613" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L613" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M613" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A614" s="4">
+        <v>45564.608751307867</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D614" s="5">
+        <v>20245131</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F614" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G614" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I614" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J614" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K614" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L614" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M614" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A615" s="10">
+        <v>45564.611181828703</v>
+      </c>
+      <c r="B615" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C615" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D615" s="11">
+        <v>20233301</v>
+      </c>
+      <c r="E615" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F615" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G615" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H615" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I615" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J615" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K615" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L615" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N615" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A616" s="4">
+        <v>45564.616926678238</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D616" s="5">
+        <v>20213731</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F616" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G616" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H616" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I616" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J616" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K616" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L616" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M616" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A617" s="10">
+        <v>45564.626886493061</v>
+      </c>
+      <c r="B617" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C617" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D617" s="11">
+        <v>20243721</v>
+      </c>
+      <c r="E617" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F617" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G617" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H617" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I617" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J617" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K617" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L617" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M617" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A618" s="4">
+        <v>45564.63045626157</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D618" s="5">
+        <v>20222514</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G618" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H618" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I618" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J618" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K618" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L618" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M618" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A619" s="10">
+        <v>45564.637079479166</v>
+      </c>
+      <c r="B619" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C619" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D619" s="11">
+        <v>20225218</v>
+      </c>
+      <c r="E619" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F619" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G619" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H619" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I619" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J619" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K619" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L619" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N619" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A620" s="4">
+        <v>45564.644551990743</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D620" s="5">
+        <v>20193420</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G620" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H620" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I620" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J620" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K620" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L620" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N620" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A621" s="10">
+        <v>45564.647143900467</v>
+      </c>
+      <c r="B621" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C621" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D621" s="11">
+        <v>20172808</v>
+      </c>
+      <c r="E621" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F621" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G621" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H621" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I621" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J621" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K621" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L621" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N621" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A622" s="4">
+        <v>45564.649604050923</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D622" s="5">
+        <v>20202641</v>
+      </c>
+      <c r="E622" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G622" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H622" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I622" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J622" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K622" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L622" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M622" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A623" s="10">
+        <v>45564.654877743058</v>
+      </c>
+      <c r="B623" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C623" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D623" s="11">
+        <v>20245109</v>
+      </c>
+      <c r="E623" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F623" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G623" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H623" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I623" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J623" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K623" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L623" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M623" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A624" s="4">
+        <v>45564.655022847219</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D624" s="5">
+        <v>20217173</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G624" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H624" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I624" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J624" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K624" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L624" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M624" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A625" s="10">
+        <v>45564.655452766208</v>
+      </c>
+      <c r="B625" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C625" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D625" s="11">
+        <v>20193968</v>
+      </c>
+      <c r="E625" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F625" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G625" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H625" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I625" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J625" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K625" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L625" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M625" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A626" s="4">
+        <v>45564.658809247689</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D626" s="5">
+        <v>20246224</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F626" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G626" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H626" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I626" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J626" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K626" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L626" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N626" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A627" s="10">
+        <v>45564.659551597222</v>
+      </c>
+      <c r="B627" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C627" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D627" s="11">
+        <v>20246221</v>
+      </c>
+      <c r="E627" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F627" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G627" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H627" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I627" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J627" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K627" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L627" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N627" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A628" s="4">
+        <v>45564.672258078703</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D628" s="5">
+        <v>20212820</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F628" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G628" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H628" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I628" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J628" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K628" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L628" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N628" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A629" s="10">
+        <v>45564.674006631947</v>
+      </c>
+      <c r="B629" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C629" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D629" s="11">
+        <v>202356705</v>
+      </c>
+      <c r="E629" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F629" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G629" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H629" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I629" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J629" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K629" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L629" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N629" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A630" s="4">
+        <v>45564.685677581016</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D630" s="5">
+        <v>20242616</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F630" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G630" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H630" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I630" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J630" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K630" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L630" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M630" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A631" s="10">
+        <v>45564.686332245372</v>
+      </c>
+      <c r="B631" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C631" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D631" s="11">
+        <v>20216514</v>
+      </c>
+      <c r="E631" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F631" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G631" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H631" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I631" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J631" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K631" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L631" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N631" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A632" s="4">
+        <v>45564.689796412036</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D632" s="5">
+        <v>20202365</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F632" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G632" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H632" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I632" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J632" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="K632" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L632" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M632" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A633" s="10">
+        <v>45564.705065034723</v>
+      </c>
+      <c r="B633" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C633" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D633" s="11">
+        <v>20246728</v>
+      </c>
+      <c r="E633" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F633" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G633" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H633" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I633" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J633" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K633" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L633" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M633" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A634" s="4">
+        <v>45564.708095069444</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D634" s="5">
+        <v>20183006</v>
+      </c>
+      <c r="E634" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F634" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G634" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H634" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I634" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J634" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K634" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L634" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N634" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A635" s="10">
+        <v>45564.70933273148</v>
+      </c>
+      <c r="B635" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C635" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D635" s="11">
+        <v>20203055</v>
+      </c>
+      <c r="E635" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F635" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G635" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H635" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I635" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J635" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K635" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L635" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N635" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A636" s="4">
+        <v>45564.714748449071</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D636" s="5">
+        <v>20245167</v>
+      </c>
+      <c r="E636" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F636" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G636" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H636" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I636" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J636" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K636" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L636" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N636" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A637" s="10">
+        <v>45564.716290381941</v>
+      </c>
+      <c r="B637" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C637" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D637" s="11">
+        <v>20223504</v>
+      </c>
+      <c r="E637" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F637" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G637" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H637" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I637" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J637" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K637" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L637" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N637" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A638" s="4">
+        <v>45564.716713668982</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D638" s="5">
+        <v>20202406</v>
+      </c>
+      <c r="E638" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F638" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G638" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H638" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I638" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J638" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K638" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L638" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M638" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A639" s="10">
+        <v>45564.721176782405</v>
+      </c>
+      <c r="B639" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C639" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D639" s="11">
+        <v>20242992</v>
+      </c>
+      <c r="E639" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F639" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G639" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H639" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I639" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J639" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K639" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L639" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M639" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="640" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A640" s="4">
+        <v>45564.729819907407</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D640" s="5">
+        <v>20242352</v>
+      </c>
+      <c r="E640" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F640" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G640" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H640" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I640" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J640" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K640" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L640" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N640" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="641" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A641" s="10">
+        <v>45564.729830729164</v>
+      </c>
+      <c r="B641" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C641" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D641" s="11">
+        <v>20162755</v>
+      </c>
+      <c r="E641" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F641" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G641" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H641" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I641" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J641" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K641" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L641" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N641" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="642" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A642" s="4">
+        <v>45564.731599317129</v>
+      </c>
+      <c r="B642" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D642" s="5">
+        <v>20202106</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F642" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G642" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H642" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I642" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J642" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K642" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L642" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N642" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A643" s="10">
+        <v>45564.747241226854</v>
+      </c>
+      <c r="B643" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C643" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D643" s="11">
+        <v>20243613</v>
+      </c>
+      <c r="E643" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F643" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G643" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H643" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I643" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J643" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K643" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L643" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N643" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="644" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A644" s="4">
+        <v>45564.751349942133</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D644" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F644" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G644" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H644" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I644" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J644" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K644" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L644" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M644" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A645" s="10">
+        <v>45564.754354675926</v>
+      </c>
+      <c r="B645" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C645" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D645" s="11">
+        <v>20246289</v>
+      </c>
+      <c r="E645" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F645" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G645" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H645" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I645" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J645" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K645" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L645" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M645" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="646" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A646" s="4">
+        <v>45564.759351458335</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D646" s="5">
+        <v>20202708</v>
+      </c>
+      <c r="E646" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F646" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G646" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H646" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I646" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J646" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K646" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L646" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N646" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A647" s="10">
+        <v>45564.759875289354</v>
+      </c>
+      <c r="B647" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C647" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D647" s="11">
+        <v>20243627</v>
+      </c>
+      <c r="E647" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F647" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G647" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H647" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I647" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J647" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K647" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L647" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N647" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="648" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A648" s="4">
+        <v>45564.765307476853</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D648" s="5">
+        <v>20241536</v>
+      </c>
+      <c r="E648" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F648" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G648" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H648" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I648" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J648" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K648" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L648" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M648" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="649" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A649" s="10">
+        <v>45564.766273402776</v>
+      </c>
+      <c r="B649" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C649" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D649" s="11">
+        <v>20245252</v>
+      </c>
+      <c r="E649" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F649" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G649" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H649" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I649" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J649" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K649" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L649" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M649" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="650" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A650" s="4">
+        <v>45564.769935370372</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D650" s="5">
+        <v>20213719</v>
+      </c>
+      <c r="E650" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F650" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G650" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H650" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I650" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J650" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K650" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L650" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N650" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="651" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A651" s="10">
+        <v>45564.778167037039</v>
+      </c>
+      <c r="B651" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C651" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D651" s="11">
+        <v>20193003</v>
+      </c>
+      <c r="E651" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F651" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G651" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H651" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I651" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J651" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K651" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L651" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N651" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A652" s="4">
+        <v>45564.78363111111</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D652" s="5">
+        <v>20246293</v>
+      </c>
+      <c r="E652" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F652" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G652" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H652" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I652" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J652" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K652" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L652" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N652" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A653" s="10">
+        <v>45564.787353437496</v>
+      </c>
+      <c r="B653" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C653" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D653" s="11">
+        <v>20245268</v>
+      </c>
+      <c r="E653" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F653" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G653" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H653" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I653" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J653" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K653" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L653" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N653" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="654" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A654" s="4">
+        <v>45564.794940219908</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D654" s="5">
+        <v>20243216</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G654" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H654" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I654" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J654" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K654" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L654" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M654" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="655" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A655" s="10">
+        <v>45564.797745057869</v>
+      </c>
+      <c r="B655" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C655" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D655" s="11">
+        <v>20233310</v>
+      </c>
+      <c r="E655" s="11" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F655" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G655" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H655" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I655" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J655" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K655" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L655" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N655" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="656" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A656" s="4">
+        <v>45564.805443217592</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D656" s="5">
+        <v>20243973</v>
+      </c>
+      <c r="E656" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F656" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G656" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H656" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I656" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J656" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K656" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L656" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M656" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A657" s="10">
+        <v>45564.806973645835</v>
+      </c>
+      <c r="B657" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C657" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D657" s="11">
+        <v>20212432</v>
+      </c>
+      <c r="E657" s="11" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F657" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G657" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H657" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I657" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J657" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K657" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L657" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M657" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="658" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A658" s="4">
+        <v>45564.807676180557</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D658" s="5">
+        <v>20245175</v>
+      </c>
+      <c r="E658" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F658" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G658" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H658" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I658" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J658" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K658" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L658" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N658" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="659" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A659" s="10">
+        <v>45564.807698634264</v>
+      </c>
+      <c r="B659" s="11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C659" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D659" s="11">
+        <v>20195206</v>
+      </c>
+      <c r="E659" s="11" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F659" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G659" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H659" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I659" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J659" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K659" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L659" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N659" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="660" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A660" s="4">
+        <v>45564.810794641206</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D660" s="5">
+        <v>20196532</v>
+      </c>
+      <c r="E660" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G660" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H660" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I660" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J660" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K660" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L660" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N660" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="661" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A661" s="10">
+        <v>45564.811007743054</v>
+      </c>
+      <c r="B661" s="11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C661" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D661" s="11">
+        <v>20223022</v>
+      </c>
+      <c r="E661" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F661" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G661" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H661" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I661" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J661" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K661" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L661" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M661" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A662" s="4">
+        <v>45564.817277314811</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D662" s="5">
+        <v>20232238</v>
+      </c>
+      <c r="E662" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F662" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G662" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H662" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I662" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J662" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K662" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L662" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N662" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="663" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A663" s="10">
+        <v>45564.817288136575</v>
+      </c>
+      <c r="B663" s="11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C663" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D663" s="11">
+        <v>20246640</v>
+      </c>
+      <c r="E663" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F663" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G663" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H663" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I663" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J663" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K663" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L663" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N663" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="664" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A664" s="4">
+        <v>45564.818898356483</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D664" s="5">
+        <v>20215108</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F664" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G664" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H664" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I664" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J664" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K664" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L664" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M664" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A665" s="10">
+        <v>45564.820440833333</v>
+      </c>
+      <c r="B665" s="11" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C665" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D665" s="11">
+        <v>20212104</v>
+      </c>
+      <c r="E665" s="11" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F665" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G665" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="H665" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I665" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J665" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K665" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L665" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N665" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A666" s="4">
+        <v>45564.825719340282</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D666" s="5">
+        <v>20243002</v>
+      </c>
+      <c r="E666" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G666" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H666" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I666" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J666" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K666" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L666" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M666" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A667" s="10">
+        <v>45564.828806574078</v>
+      </c>
+      <c r="B667" s="11" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C667" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D667" s="11">
+        <v>20217178</v>
+      </c>
+      <c r="E667" s="11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F667" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G667" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H667" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I667" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J667" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K667" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L667" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N667" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A668" s="4">
+        <v>45564.829827175927</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D668" s="5">
+        <v>20243844</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F668" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G668" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H668" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I668" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J668" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K668" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L668" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M668" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A669" s="10">
+        <v>45564.834752071758</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C669" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D669" s="11">
+        <v>20192736</v>
+      </c>
+      <c r="E669" s="11" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F669" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G669" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H669" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I669" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J669" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K669" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L669" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N669" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A670" s="4">
+        <v>45564.83842511574</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D670" s="5">
+        <v>20202501</v>
+      </c>
+      <c r="E670" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F670" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G670" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H670" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I670" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J670" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K670" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L670" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M670" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A671" s="10">
+        <v>45564.841735462964</v>
+      </c>
+      <c r="B671" s="11" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C671" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D671" s="11">
+        <v>20245224</v>
+      </c>
+      <c r="E671" s="11" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F671" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G671" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H671" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I671" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J671" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K671" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L671" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N671" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A672" s="4">
+        <v>45564.841933263888</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D672" s="5">
+        <v>20245102</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F672" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G672" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H672" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I672" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J672" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K672" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L672" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N672" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A673" s="10">
+        <v>45564.845965694447</v>
+      </c>
+      <c r="B673" s="11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C673" s="11" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D673" s="11">
+        <v>20195285</v>
+      </c>
+      <c r="E673" s="11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F673" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G673" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H673" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I673" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J673" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K673" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L673" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N673" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A674" s="4">
+        <v>45564.851094166668</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D674" s="5">
+        <v>20232705</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F674" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G674" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H674" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I674" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J674" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K674" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L674" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M674" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A675" s="10">
+        <v>45564.851405416666</v>
+      </c>
+      <c r="B675" s="11" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C675" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D675" s="11">
+        <v>20242907</v>
+      </c>
+      <c r="E675" s="11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F675" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G675" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H675" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I675" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J675" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K675" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L675" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N675" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A676" s="4">
+        <v>45564.852873541662</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D676" s="5">
+        <v>20233930</v>
+      </c>
+      <c r="E676" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F676" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G676" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H676" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I676" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J676" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K676" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L676" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N676" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A677" s="10">
+        <v>45564.853685173613</v>
+      </c>
+      <c r="B677" s="11" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C677" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D677" s="11">
+        <v>20223611</v>
+      </c>
+      <c r="E677" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F677" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G677" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H677" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I677" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J677" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K677" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L677" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M677" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A678" s="4">
+        <v>45564.854578067127</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D678" s="5">
+        <v>20202408</v>
+      </c>
+      <c r="E678" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F678" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G678" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H678" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I678" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J678" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K678" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L678" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N678" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A679" s="10">
+        <v>45564.855360972222</v>
+      </c>
+      <c r="B679" s="11" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C679" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D679" s="11">
+        <v>20245169</v>
+      </c>
+      <c r="E679" s="11" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F679" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G679" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H679" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I679" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J679" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K679" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L679" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N679" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A680" s="4">
+        <v>45564.855877766204</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D680" s="5">
+        <v>20233016</v>
+      </c>
+      <c r="E680" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F680" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G680" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H680" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I680" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J680" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L680" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M680" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A681" s="10">
+        <v>45564.861886435188</v>
+      </c>
+      <c r="B681" s="11" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C681" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D681" s="11">
+        <v>20243951</v>
+      </c>
+      <c r="E681" s="11" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F681" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G681" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H681" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I681" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J681" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K681" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L681" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M681" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A682" s="4">
+        <v>45564.862301678237</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D682" s="5">
+        <v>20243253</v>
+      </c>
+      <c r="E682" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F682" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G682" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H682" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I682" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J682" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K682" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L682" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M682" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A683" s="10">
+        <v>45564.862359039354</v>
+      </c>
+      <c r="B683" s="11" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C683" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D683" s="11">
+        <v>20232750</v>
+      </c>
+      <c r="E683" s="11" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F683" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G683" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H683" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I683" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J683" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K683" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L683" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N683" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A684" s="4">
+        <v>45564.864627627314</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D684" s="5">
+        <v>20243913</v>
+      </c>
+      <c r="E684" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="F684" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G684" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H684" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I684" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J684" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K684" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L684" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N684" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A685" s="10">
+        <v>45564.867679016199</v>
+      </c>
+      <c r="B685" s="11" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D685" s="11">
+        <v>20231532</v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F685" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G685" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H685" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I685" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J685" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K685" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L685" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N685" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A686" s="4">
+        <v>45564.871893495365</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D686" s="5">
+        <v>20226602</v>
+      </c>
+      <c r="E686" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F686" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G686" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H686" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I686" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J686" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K686" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L686" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M686" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A687" s="10">
+        <v>45564.875089733796</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C687" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D687" s="11">
+        <v>20227162</v>
+      </c>
+      <c r="E687" s="11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F687" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G687" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H687" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I687" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J687" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K687" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L687" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N687" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A688" s="4">
+        <v>45564.876320775467</v>
+      </c>
+      <c r="B688" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D688" s="5">
+        <v>20246203</v>
+      </c>
+      <c r="E688" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F688" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G688" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H688" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I688" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J688" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K688" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L688" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M688" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A689" s="10">
+        <v>45564.878913356486</v>
+      </c>
+      <c r="B689" s="11" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C689" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D689" s="11">
+        <v>20227037</v>
+      </c>
+      <c r="E689" s="11" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F689" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G689" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H689" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I689" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J689" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K689" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L689" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M689" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A690" s="4">
+        <v>45564.87973586806</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D690" s="5">
+        <v>20203908</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="F690" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G690" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H690" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I690" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J690" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K690" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L690" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N690" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A691" s="10">
+        <v>45564.879805798613</v>
+      </c>
+      <c r="B691" s="11" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C691" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D691" s="11">
+        <v>20243064</v>
+      </c>
+      <c r="E691" s="11" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F691" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G691" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H691" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I691" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J691" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K691" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L691" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N691" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A692" s="4">
+        <v>45564.880298148149</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D692" s="5">
+        <v>20246614</v>
+      </c>
+      <c r="E692" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="F692" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G692" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H692" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I692" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J692" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L692" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N692" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A693" s="10">
+        <v>45564.880329282409</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C693" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D693" s="11">
+        <v>20217103</v>
+      </c>
+      <c r="E693" s="11" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F693" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G693" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H693" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I693" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J693" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K693" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L693" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N693" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A694" s="4">
+        <v>45564.881058368061</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D694" s="5">
+        <v>20233000</v>
+      </c>
+      <c r="E694" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F694" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G694" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H694" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I694" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J694" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K694" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L694" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N694" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A695" s="10">
+        <v>45564.881379467595</v>
+      </c>
+      <c r="B695" s="11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C695" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D695" s="11">
+        <v>20245113</v>
+      </c>
+      <c r="E695" s="11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F695" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G695" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H695" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I695" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J695" s="14">
+        <v>2E-3</v>
+      </c>
+      <c r="K695" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L695" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N695" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A696" s="4">
+        <v>45564.882370115738</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D696" s="5">
+        <v>20235198</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F696" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G696" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H696" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I696" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J696" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L696" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M696" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A697" s="10">
+        <v>45564.882481631939</v>
+      </c>
+      <c r="B697" s="11" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C697" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D697" s="11">
+        <v>20241728</v>
+      </c>
+      <c r="E697" s="11" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F697" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G697" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H697" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I697" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J697" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K697" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L697" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M697" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A698" s="4">
+        <v>45564.883015092593</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D698" s="5">
+        <v>20243415</v>
+      </c>
+      <c r="E698" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F698" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G698" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H698" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I698" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J698" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K698" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L698" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M698" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A699" s="10">
+        <v>45564.883980833329</v>
+      </c>
+      <c r="B699" s="11" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C699" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D699" s="11">
+        <v>20222128</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F699" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G699" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H699" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I699" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J699" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K699" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L699" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M699" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A700" s="4">
+        <v>45564.884491631943</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D700" s="5">
+        <v>20223316</v>
+      </c>
+      <c r="E700" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F700" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G700" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H700" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I700" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J700" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K700" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L700" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M700" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A701" s="10">
+        <v>45564.885176087962</v>
+      </c>
+      <c r="B701" s="11" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C701" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D701" s="11">
+        <v>20192229</v>
+      </c>
+      <c r="E701" s="11" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F701" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G701" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H701" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I701" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J701" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K701" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L701" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M701" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A702" s="4">
+        <v>45564.885455312498</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D702" s="5">
+        <v>20231025</v>
+      </c>
+      <c r="E702" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="F702" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G702" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H702" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I702" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J702" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K702" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L702" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N702" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A703" s="10">
+        <v>45564.88601130787</v>
+      </c>
+      <c r="B703" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C703" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D703" s="11">
+        <v>20243726</v>
+      </c>
+      <c r="E703" s="11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F703" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G703" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H703" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I703" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J703" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K703" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L703" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M703" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="704" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A704" s="4">
+        <v>45564.888587731482</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D704" s="5">
+        <v>20227111</v>
+      </c>
+      <c r="E704" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F704" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G704" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H704" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I704" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J704" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K704" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L704" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M704" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A705" s="10">
+        <v>45564.889054525462</v>
+      </c>
+      <c r="B705" s="11" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C705" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D705" s="11">
+        <v>20182923</v>
+      </c>
+      <c r="E705" s="11" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F705" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G705" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H705" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I705" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J705" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K705" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L705" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M705" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A706" s="4">
+        <v>45564.889109837968</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D706" s="5">
+        <v>20232216</v>
+      </c>
+      <c r="E706" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F706" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G706" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H706" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I706" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J706" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K706" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L706" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N706" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A707" s="10">
+        <v>45564.891137407409</v>
+      </c>
+      <c r="B707" s="11" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C707" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D707" s="11">
+        <v>20243235</v>
+      </c>
+      <c r="E707" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F707" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G707" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H707" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I707" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J707" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K707" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L707" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N707" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A708" s="4">
+        <v>45564.893333437503</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D708" s="5">
+        <v>20242420</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F708" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G708" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H708" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I708" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J708" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K708" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L708" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N708" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A709" s="10">
+        <v>45564.893420497683</v>
+      </c>
+      <c r="B709" s="11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C709" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D709" s="11">
+        <v>20192717</v>
+      </c>
+      <c r="E709" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F709" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G709" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H709" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I709" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J709" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K709" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L709" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N709" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A710" s="4">
+        <v>45564.894974224539</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D710" s="5">
+        <v>20215212</v>
+      </c>
+      <c r="E710" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F710" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G710" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H710" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I710" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J710" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K710" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L710" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N710" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A711" s="10">
+        <v>45564.895298356481</v>
+      </c>
+      <c r="B711" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C711" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D711" s="11">
+        <v>20246422</v>
+      </c>
+      <c r="E711" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F711" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G711" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H711" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I711" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J711" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K711" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L711" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M711" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A712" s="4">
+        <v>45564.896102037033</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D712" s="5">
+        <v>20243032</v>
+      </c>
+      <c r="E712" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F712" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G712" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H712" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I712" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J712" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K712" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L712" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N712" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A713" s="10">
+        <v>45564.896148738422</v>
+      </c>
+      <c r="B713" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C713" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D713" s="11">
+        <v>20246769</v>
+      </c>
+      <c r="E713" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F713" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G713" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H713" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I713" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J713" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K713" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L713" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N713" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A714" s="4">
+        <v>45564.899302303238</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D714" s="5">
+        <v>20232210</v>
+      </c>
+      <c r="E714" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F714" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G714" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H714" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I714" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J714" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K714" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L714" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N714" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A715" s="10">
+        <v>45564.900980798615</v>
+      </c>
+      <c r="B715" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C715" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D715" s="11">
+        <v>20242513</v>
+      </c>
+      <c r="E715" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F715" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G715" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H715" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I715" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J715" s="14">
+        <v>0.374</v>
+      </c>
+      <c r="K715" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L715" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M715" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A716" s="4">
+        <v>45564.902510613421</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D716" s="5">
+        <v>20232941</v>
+      </c>
+      <c r="E716" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F716" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G716" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H716" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I716" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J716" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K716" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L716" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N716" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A717" s="10">
+        <v>45564.905636006944</v>
+      </c>
+      <c r="B717" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C717" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D717" s="11">
+        <v>20202927</v>
+      </c>
+      <c r="E717" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F717" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G717" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H717" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I717" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J717" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K717" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L717" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M717" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A718" s="4">
+        <v>45564.906171030088</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D718" s="5">
+        <v>20223520</v>
+      </c>
+      <c r="E718" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F718" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G718" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H718" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I718" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J718" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K718" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L718" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M718" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A719" s="10">
+        <v>45564.907530173616</v>
+      </c>
+      <c r="B719" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C719" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D719" s="11">
+        <v>20216510</v>
+      </c>
+      <c r="E719" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F719" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G719" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H719" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I719" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J719" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K719" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L719" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N719" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A720" s="4">
+        <v>45564.907840891203</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D720" s="5">
+        <v>20242636</v>
+      </c>
+      <c r="E720" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F720" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G720" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H720" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I720" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J720" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K720" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L720" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N720" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A721" s="10">
+        <v>45564.910848576386</v>
+      </c>
+      <c r="B721" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C721" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D721" s="11">
+        <v>20246909</v>
+      </c>
+      <c r="E721" s="11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F721" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G721" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H721" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I721" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J721" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K721" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L721" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M721" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A722" s="4">
+        <v>45564.911716712959</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D722" s="5">
+        <v>20235263</v>
+      </c>
+      <c r="E722" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F722" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G722" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="H722" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I722" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J722" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K722" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L722" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M722" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A723" s="10">
+        <v>45564.911891909724</v>
+      </c>
+      <c r="B723" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C723" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D723" s="11">
+        <v>20212549</v>
+      </c>
+      <c r="E723" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F723" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G723" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="H723" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I723" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J723" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="K723" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L723" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N723" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A724" s="4">
+        <v>45564.913235208332</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D724" s="5">
+        <v>20233048</v>
+      </c>
+      <c r="E724" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F724" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G724" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H724" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I724" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J724" s="8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K724" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L724" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N724" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A725" s="10">
+        <v>45564.913238263893</v>
+      </c>
+      <c r="B725" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C725" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D725" s="11">
+        <v>20202519</v>
+      </c>
+      <c r="E725" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F725" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G725" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H725" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I725" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J725" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K725" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L725" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M725" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A726" s="4">
+        <v>45564.914434212958</v>
+      </c>
+      <c r="B726" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D726" s="5">
+        <v>20242353</v>
+      </c>
+      <c r="E726" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F726" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G726" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H726" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I726" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J726" s="8">
+        <v>0.374</v>
+      </c>
+      <c r="K726" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L726" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N726" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A727" s="10">
+        <v>45564.915291192126</v>
+      </c>
+      <c r="B727" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C727" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D727" s="11">
+        <v>20202324</v>
+      </c>
+      <c r="E727" s="11" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F727" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G727" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H727" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I727" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J727" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K727" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L727" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M727" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A728" s="4">
+        <v>45564.916329016203</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D728" s="5">
+        <v>20202564</v>
+      </c>
+      <c r="E728" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F728" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G728" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H728" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I728" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J728" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="K728" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L728" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M728" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A729" s="16">
+        <v>45564.91647329861</v>
+      </c>
+      <c r="B729" s="17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C729" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D729" s="17">
+        <v>20242930</v>
+      </c>
+      <c r="E729" s="17" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F729" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G729" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H729" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I729" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J729" s="20">
+        <v>0.374</v>
+      </c>
+      <c r="K729" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L729" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M729" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
